--- a/hbpSampling/subsampleSortExperiments/hbp_d1819_sortExperiment2021_data.xlsx
+++ b/hbpSampling/subsampleSortExperiments/hbp_d1819_sortExperiment2021_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pajaro/Documents/workDocuments/gitRepositories/neon-plant-sampling/hbpSampling/subsampleSortExperiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BAEB9D-1766-284F-8815-9F03BE496F8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83D2EC3-1865-7344-A47C-0B4FE9DC316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17780" yWindow="500" windowWidth="32300" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>clipID</t>
   </si>
@@ -155,6 +155,39 @@
         <scheme val="minor"/>
       </rPr>
       <t>(BRY from entire strip)</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Sheet: D17 HBP sorting experiment for OSD from non-PG clip harvest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">subsampleFreshMass </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ALL - unsorted)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">subsampleDryMass </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OSD - sorted)</t>
     </r>
   </si>
 </sst>
@@ -494,6 +527,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,9 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -837,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38130F8A-AF32-2B47-A3E7-9AEBC9BD4D56}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -862,18 +895,18 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -882,7 +915,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -923,9 +956,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6">
-        <v>0.32</v>
-      </c>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
@@ -938,9 +969,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5">
-        <v>0.17</v>
-      </c>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
@@ -953,9 +982,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
@@ -968,9 +995,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5">
-        <v>0.18</v>
-      </c>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
@@ -983,9 +1008,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
@@ -998,9 +1021,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5">
-        <v>0.06</v>
-      </c>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
@@ -1013,9 +1034,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
@@ -1028,9 +1047,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
@@ -1043,9 +1060,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
@@ -1058,9 +1073,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5">
-        <v>0.11</v>
-      </c>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
@@ -1073,9 +1086,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5">
-        <v>0.04</v>
-      </c>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
@@ -1088,9 +1099,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5">
-        <v>0.11</v>
-      </c>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
@@ -1103,9 +1112,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5">
-        <v>0.19</v>
-      </c>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
@@ -1118,9 +1125,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5">
-        <v>0.16</v>
-      </c>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
@@ -1133,9 +1138,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5">
-        <v>0.28999999999999998</v>
-      </c>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
@@ -1148,9 +1151,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5">
-        <v>0.16</v>
-      </c>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
@@ -1163,9 +1164,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5">
-        <v>1.25</v>
-      </c>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
@@ -1597,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1613,23 +1612,23 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="D2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="D2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">

--- a/hbpSampling/subsampleSortExperiments/hbp_d1819_sortExperiment2021_data.xlsx
+++ b/hbpSampling/subsampleSortExperiments/hbp_d1819_sortExperiment2021_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pajaro/Documents/workDocuments/gitRepositories/neon-plant-sampling/hbpSampling/subsampleSortExperiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC247A29-670C-554E-93F7-BB6525B82E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03E1BB2-7DD4-6E42-B558-A3B25D0441BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7000" yWindow="500" windowWidth="29960" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="173">
   <si>
     <t>clipID</t>
   </si>
@@ -641,12 +641,21 @@
   <si>
     <t>HEAL</t>
   </si>
+  <si>
+    <t>domainID</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -719,6 +728,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2091,4404 +2106,4709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1727B5C7-94B4-4841-BC7D-5C54821E9B6A}">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="89"/>
-    <col min="2" max="2" width="13.6640625" style="89" customWidth="1"/>
-    <col min="3" max="13" width="10.83203125" style="89"/>
-    <col min="14" max="14" width="32.5" style="89" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="89"/>
+    <col min="1" max="2" width="10.83203125" style="89"/>
+    <col min="3" max="3" width="13.6640625" style="89" customWidth="1"/>
+    <col min="4" max="14" width="10.83203125" style="89"/>
+    <col min="15" max="15" width="32.5" style="89" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="C1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="D1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="E1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="G1" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="C2" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="91">
+      <c r="D2" s="91">
         <v>20210727</v>
       </c>
-      <c r="D2" s="92">
+      <c r="E2" s="92">
         <v>119.6</v>
       </c>
-      <c r="E2" s="92">
+      <c r="F2" s="92">
         <v>12.33</v>
       </c>
-      <c r="F2" s="92">
+      <c r="G2" s="92">
         <v>17.760000000000002</v>
       </c>
-      <c r="G2" s="92">
+      <c r="H2" s="92">
         <v>29.89</v>
       </c>
-      <c r="H2" s="92">
+      <c r="I2" s="92">
         <v>59.62</v>
       </c>
-      <c r="I2" s="92">
+      <c r="J2" s="92">
         <v>0.22000000000000064</v>
       </c>
-      <c r="J2" s="92">
+      <c r="K2" s="92">
         <v>1.4700000000000006</v>
       </c>
-      <c r="K2" s="92">
+      <c r="L2" s="92">
         <v>0.41000000000000014</v>
       </c>
-      <c r="L2" s="92">
+      <c r="M2" s="92">
         <v>0.53000000000000114</v>
       </c>
-      <c r="M2" s="92">
+      <c r="N2" s="92">
         <v>2.63</v>
       </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="90"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="90"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="C3" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="91">
+      <c r="D3" s="91">
         <v>20210726</v>
       </c>
-      <c r="D3" s="92">
+      <c r="E3" s="92">
         <v>1493.6100000000001</v>
       </c>
-      <c r="E3" s="92">
+      <c r="F3" s="92">
         <v>149.19999999999999</v>
       </c>
-      <c r="F3" s="92">
+      <c r="G3" s="92">
         <v>223.46</v>
       </c>
-      <c r="G3" s="92">
+      <c r="H3" s="92">
         <v>373.36</v>
       </c>
-      <c r="H3" s="92">
+      <c r="I3" s="92">
         <v>747.59</v>
       </c>
-      <c r="I3" s="92">
+      <c r="J3" s="92">
         <v>13.24</v>
       </c>
-      <c r="J3" s="92">
+      <c r="K3" s="92">
         <v>15.24</v>
       </c>
-      <c r="K3" s="92">
+      <c r="L3" s="92">
         <v>34.78</v>
       </c>
-      <c r="L3" s="92">
+      <c r="M3" s="92">
         <v>63.48</v>
       </c>
-      <c r="M3" s="92">
+      <c r="N3" s="92">
         <v>126.73999999999998</v>
       </c>
-      <c r="N3" s="92"/>
-      <c r="O3" s="90"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
+      <c r="O3" s="92"/>
+      <c r="P3" s="90"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="C4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92">
+      <c r="D4" s="91"/>
+      <c r="E4" s="92">
         <v>57.89</v>
       </c>
-      <c r="E4" s="92">
+      <c r="F4" s="92">
         <v>5.85</v>
       </c>
-      <c r="F4" s="92">
+      <c r="G4" s="92">
         <v>8.49</v>
       </c>
-      <c r="G4" s="92">
+      <c r="H4" s="92">
         <v>14.44</v>
       </c>
-      <c r="H4" s="92">
+      <c r="I4" s="92">
         <v>29.11</v>
       </c>
-      <c r="I4" s="92">
+      <c r="J4" s="92">
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="J4" s="92">
+      <c r="K4" s="92">
         <v>4.0000000000000924E-2</v>
       </c>
-      <c r="K4" s="92">
+      <c r="L4" s="92">
         <v>5.9999999999998721E-2</v>
       </c>
-      <c r="L4" s="92">
+      <c r="M4" s="92">
         <v>0.15000000000000036</v>
       </c>
-      <c r="M4" s="92">
+      <c r="N4" s="92">
         <v>0.33000000000000007</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="O4" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="90"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="P4" s="90"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="C5" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="91">
+      <c r="D5" s="91">
         <v>20210728</v>
       </c>
-      <c r="D5" s="92">
+      <c r="E5" s="92">
         <v>1384.2</v>
       </c>
-      <c r="E5" s="92">
+      <c r="F5" s="92">
         <v>138.5</v>
       </c>
-      <c r="F5" s="92">
+      <c r="G5" s="92">
         <v>206.72</v>
       </c>
-      <c r="G5" s="92">
+      <c r="H5" s="92">
         <v>346.35</v>
       </c>
-      <c r="H5" s="92">
+      <c r="I5" s="92">
         <v>692.63</v>
       </c>
-      <c r="I5" s="92">
+      <c r="J5" s="92">
         <v>6.4</v>
       </c>
-      <c r="J5" s="92">
+      <c r="K5" s="92">
         <v>7.4799999999999986</v>
       </c>
-      <c r="K5" s="92">
+      <c r="L5" s="92">
         <v>28.169999999999998</v>
       </c>
-      <c r="L5" s="92">
+      <c r="M5" s="92">
         <v>38.229999999999997</v>
       </c>
-      <c r="M5" s="92">
+      <c r="N5" s="92">
         <v>80.28</v>
       </c>
-      <c r="N5" s="92" t="s">
+      <c r="O5" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="90"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="P5" s="90"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="C6" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="91">
+      <c r="D6" s="91">
         <v>20210729</v>
       </c>
-      <c r="D6" s="92">
+      <c r="E6" s="92">
         <v>357.67000000000007</v>
       </c>
-      <c r="E6" s="92">
+      <c r="F6" s="92">
         <v>35.78</v>
       </c>
-      <c r="F6" s="92">
+      <c r="G6" s="92">
         <v>52.43</v>
       </c>
-      <c r="G6" s="92">
+      <c r="H6" s="92">
         <v>89.59</v>
       </c>
-      <c r="H6" s="92">
+      <c r="I6" s="92">
         <v>179.87</v>
       </c>
-      <c r="I6" s="92">
+      <c r="J6" s="92">
         <v>0.14000000000000057</v>
       </c>
-      <c r="J6" s="92">
+      <c r="K6" s="92">
         <v>0.16000000000000014</v>
       </c>
-      <c r="K6" s="92">
+      <c r="L6" s="92">
         <v>0.33999999999999986</v>
       </c>
-      <c r="L6" s="92">
+      <c r="M6" s="92">
         <v>1.08</v>
       </c>
-      <c r="M6" s="92">
+      <c r="N6" s="92">
         <v>1.7200000000000006</v>
       </c>
-      <c r="N6" s="92"/>
-      <c r="O6" s="90"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
+      <c r="O6" s="92"/>
+      <c r="P6" s="90"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="C7" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92">
+      <c r="D7" s="91"/>
+      <c r="E7" s="92">
         <v>1711.8899999999999</v>
       </c>
-      <c r="E7" s="92">
+      <c r="F7" s="92">
         <v>171.15</v>
       </c>
-      <c r="F7" s="92">
+      <c r="G7" s="92">
         <v>256.14</v>
       </c>
-      <c r="G7" s="92">
+      <c r="H7" s="92">
         <v>428.31</v>
       </c>
-      <c r="H7" s="92">
+      <c r="I7" s="92">
         <v>856.29</v>
       </c>
-      <c r="I7" s="92">
+      <c r="J7" s="92">
         <v>4.01</v>
       </c>
-      <c r="J7" s="92">
+      <c r="K7" s="92">
         <v>10.230000000000002</v>
       </c>
-      <c r="K7" s="92">
+      <c r="L7" s="92">
         <v>17.519999999999996</v>
       </c>
-      <c r="L7" s="92">
+      <c r="M7" s="92">
         <v>44.54</v>
       </c>
-      <c r="M7" s="92">
+      <c r="N7" s="92">
         <v>76.3</v>
       </c>
-      <c r="N7" s="92"/>
-      <c r="O7" s="90"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="90"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="C8" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="91">
+      <c r="D8" s="91">
         <v>20210726</v>
       </c>
-      <c r="D8" s="92">
+      <c r="E8" s="92">
         <v>752.94999999999993</v>
       </c>
-      <c r="E8" s="92">
+      <c r="F8" s="92">
         <v>75.41</v>
       </c>
-      <c r="F8" s="92">
+      <c r="G8" s="92">
         <v>111.62</v>
       </c>
-      <c r="G8" s="92">
+      <c r="H8" s="92">
         <v>188.6</v>
       </c>
-      <c r="H8" s="92">
+      <c r="I8" s="92">
         <v>377.32</v>
       </c>
-      <c r="I8" s="92">
+      <c r="J8" s="92">
         <v>3.8999999999999986</v>
       </c>
-      <c r="J8" s="92">
+      <c r="K8" s="92">
         <v>6.82</v>
       </c>
-      <c r="K8" s="92">
+      <c r="L8" s="92">
         <v>10.11</v>
       </c>
-      <c r="L8" s="92">
+      <c r="M8" s="92">
         <v>22.66</v>
       </c>
-      <c r="M8" s="92">
+      <c r="N8" s="92">
         <v>43.489999999999995</v>
       </c>
-      <c r="N8" s="92"/>
-      <c r="O8" s="90"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="s">
+      <c r="O8" s="92"/>
+      <c r="P8" s="90"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="C9" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="91">
+      <c r="D9" s="91">
         <v>20210726</v>
       </c>
-      <c r="D9" s="92">
+      <c r="E9" s="92">
         <v>674.18</v>
       </c>
-      <c r="E9" s="92">
+      <c r="F9" s="92">
         <v>67.650000000000006</v>
       </c>
-      <c r="F9" s="92">
+      <c r="G9" s="92">
         <v>99.28</v>
       </c>
-      <c r="G9" s="92">
+      <c r="H9" s="92">
         <v>169.14</v>
       </c>
-      <c r="H9" s="92">
+      <c r="I9" s="92">
         <v>338.11</v>
       </c>
-      <c r="I9" s="92">
+      <c r="J9" s="92">
         <v>8.3299999999999983</v>
       </c>
-      <c r="J9" s="92">
+      <c r="K9" s="92">
         <v>12.200000000000001</v>
       </c>
-      <c r="K9" s="92">
+      <c r="L9" s="92">
         <v>20.75</v>
       </c>
-      <c r="L9" s="92">
+      <c r="M9" s="92">
         <v>40.230000000000004</v>
       </c>
-      <c r="M9" s="92">
+      <c r="N9" s="92">
         <v>81.510000000000005</v>
       </c>
-      <c r="N9" s="92"/>
-      <c r="O9" s="90"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
+      <c r="O9" s="92"/>
+      <c r="P9" s="90"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="C10" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="91">
+      <c r="D10" s="91">
         <v>20210729</v>
       </c>
-      <c r="D10" s="92">
+      <c r="E10" s="92">
         <v>271.14</v>
       </c>
-      <c r="E10" s="92">
+      <c r="F10" s="92">
         <v>27.12</v>
       </c>
-      <c r="F10" s="92">
+      <c r="G10" s="92">
         <v>39.83</v>
       </c>
-      <c r="G10" s="92">
+      <c r="H10" s="92">
         <v>68.099999999999994</v>
       </c>
-      <c r="H10" s="92">
+      <c r="I10" s="92">
         <v>136.09</v>
       </c>
-      <c r="I10" s="92">
+      <c r="J10" s="92">
         <v>2.09</v>
       </c>
-      <c r="J10" s="92">
+      <c r="K10" s="92">
         <v>2.5200000000000014</v>
       </c>
-      <c r="K10" s="92">
+      <c r="L10" s="92">
         <v>5.66</v>
       </c>
-      <c r="L10" s="92">
+      <c r="M10" s="92">
         <v>11.879999999999999</v>
       </c>
-      <c r="M10" s="92">
+      <c r="N10" s="92">
         <v>22.150000000000002</v>
       </c>
-      <c r="N10" s="92"/>
-      <c r="O10" s="90"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="90" t="s">
+      <c r="O10" s="92"/>
+      <c r="P10" s="90"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="C11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="91">
+      <c r="D11" s="91">
         <v>20210728</v>
       </c>
-      <c r="D11" s="92">
+      <c r="E11" s="92">
         <v>941.42</v>
       </c>
-      <c r="E11" s="92">
+      <c r="F11" s="92">
         <v>91.97</v>
       </c>
-      <c r="F11" s="92">
+      <c r="G11" s="92">
         <v>165.64</v>
       </c>
-      <c r="G11" s="92">
+      <c r="H11" s="92">
         <v>228.26</v>
       </c>
-      <c r="H11" s="92">
+      <c r="I11" s="92">
         <v>455.55</v>
       </c>
-      <c r="I11" s="92">
+      <c r="J11" s="92">
         <v>2.25</v>
       </c>
-      <c r="J11" s="92">
+      <c r="K11" s="92">
         <v>3.3999999999999986</v>
       </c>
-      <c r="K11" s="92">
+      <c r="L11" s="92">
         <v>8.7799999999999994</v>
       </c>
-      <c r="L11" s="92">
+      <c r="M11" s="92">
         <v>10.43</v>
       </c>
-      <c r="M11" s="92">
+      <c r="N11" s="92">
         <v>24.86</v>
       </c>
-      <c r="N11" s="92" t="s">
+      <c r="O11" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="90"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="s">
+      <c r="P11" s="90"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="C12" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="91">
+      <c r="D12" s="91">
         <v>20210728</v>
       </c>
-      <c r="D12" s="92">
+      <c r="E12" s="92">
         <v>1490.7800000000002</v>
       </c>
-      <c r="E12" s="92">
+      <c r="F12" s="92">
         <v>149.15</v>
       </c>
-      <c r="F12" s="92">
+      <c r="G12" s="92">
         <v>222.88</v>
       </c>
-      <c r="G12" s="92">
+      <c r="H12" s="92">
         <v>372.93</v>
       </c>
-      <c r="H12" s="92">
+      <c r="I12" s="92">
         <v>745.82</v>
       </c>
-      <c r="I12" s="92">
+      <c r="J12" s="92">
         <v>2.76</v>
       </c>
-      <c r="J12" s="92">
+      <c r="K12" s="92">
         <v>5.5500000000000007</v>
       </c>
-      <c r="K12" s="92">
+      <c r="L12" s="92">
         <v>18.259999999999998</v>
       </c>
-      <c r="L12" s="92">
+      <c r="M12" s="92">
         <v>25.93</v>
       </c>
-      <c r="M12" s="92">
+      <c r="N12" s="92">
         <v>52.499999999999993</v>
       </c>
-      <c r="N12" s="92"/>
-      <c r="O12" s="90"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+      <c r="O12" s="92"/>
+      <c r="P12" s="90"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="C13" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="91">
+      <c r="D13" s="91">
         <v>20210728</v>
       </c>
-      <c r="D13" s="92">
+      <c r="E13" s="92">
         <v>383.59999999999991</v>
       </c>
-      <c r="E13" s="92">
+      <c r="F13" s="92">
         <v>38.47</v>
       </c>
-      <c r="F13" s="92">
+      <c r="G13" s="92">
         <v>56.71</v>
       </c>
-      <c r="G13" s="92">
+      <c r="H13" s="92">
         <v>96.13</v>
       </c>
-      <c r="H13" s="92">
+      <c r="I13" s="92">
         <v>192.29</v>
       </c>
-      <c r="I13" s="92">
+      <c r="J13" s="92">
         <v>3.4600000000000009</v>
       </c>
-      <c r="J13" s="92">
+      <c r="K13" s="92">
         <v>6.08</v>
       </c>
-      <c r="K13" s="92">
+      <c r="L13" s="92">
         <v>11.309999999999999</v>
       </c>
-      <c r="L13" s="92">
+      <c r="M13" s="92">
         <v>19.460000000000004</v>
       </c>
-      <c r="M13" s="92">
+      <c r="N13" s="92">
         <v>40.31</v>
       </c>
-      <c r="N13" s="92"/>
-      <c r="O13" s="90"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="s">
+      <c r="O13" s="92"/>
+      <c r="P13" s="90"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="C14" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="91">
+      <c r="D14" s="91">
         <v>20210728</v>
       </c>
-      <c r="D14" s="92">
+      <c r="E14" s="92">
         <v>307.59999999999997</v>
       </c>
-      <c r="E14" s="92">
+      <c r="F14" s="92">
         <v>30.83</v>
       </c>
-      <c r="F14" s="92">
+      <c r="G14" s="92">
         <v>45.62</v>
       </c>
-      <c r="G14" s="92">
+      <c r="H14" s="92">
         <v>77.06</v>
       </c>
-      <c r="H14" s="92">
+      <c r="I14" s="92">
         <v>154.09</v>
       </c>
-      <c r="I14" s="92">
+      <c r="J14" s="92">
         <v>1.1300000000000008</v>
       </c>
-      <c r="J14" s="92">
+      <c r="K14" s="92">
         <v>1.0400000000000009</v>
       </c>
-      <c r="K14" s="92">
+      <c r="L14" s="92">
         <v>1.2599999999999998</v>
       </c>
-      <c r="L14" s="92">
+      <c r="M14" s="92">
         <v>2.5499999999999989</v>
       </c>
-      <c r="M14" s="92">
+      <c r="N14" s="92">
         <v>5.98</v>
       </c>
-      <c r="N14" s="92" t="s">
+      <c r="O14" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="90"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="s">
+      <c r="P14" s="90"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="C15" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="91">
+      <c r="D15" s="91">
         <v>20210727</v>
       </c>
-      <c r="D15" s="92">
+      <c r="E15" s="92">
         <v>565.21</v>
       </c>
-      <c r="E15" s="92">
+      <c r="F15" s="92">
         <v>56.39</v>
       </c>
-      <c r="F15" s="92">
+      <c r="G15" s="92">
         <v>84.89</v>
       </c>
-      <c r="G15" s="92">
+      <c r="H15" s="92">
         <v>141.58000000000001</v>
       </c>
-      <c r="H15" s="92">
+      <c r="I15" s="92">
         <v>282.35000000000002</v>
       </c>
-      <c r="I15" s="92">
+      <c r="J15" s="92">
         <v>0.69000000000000128</v>
       </c>
-      <c r="J15" s="92">
+      <c r="K15" s="92">
         <v>0.75</v>
       </c>
-      <c r="K15" s="92">
+      <c r="L15" s="92">
         <v>3.2799999999999994</v>
       </c>
-      <c r="L15" s="92">
+      <c r="M15" s="92">
         <v>4.1500000000000004</v>
       </c>
-      <c r="M15" s="92">
+      <c r="N15" s="92">
         <v>8.870000000000001</v>
       </c>
-      <c r="N15" s="92"/>
-      <c r="O15" s="90"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="s">
+      <c r="O15" s="92"/>
+      <c r="P15" s="90"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="C16" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="91">
+      <c r="D16" s="91">
         <v>20210730</v>
       </c>
-      <c r="D16" s="92">
+      <c r="E16" s="92">
         <v>1526.4</v>
       </c>
-      <c r="E16" s="92">
+      <c r="F16" s="92">
         <v>152.52000000000001</v>
       </c>
-      <c r="F16" s="92">
+      <c r="G16" s="92">
         <v>226.72</v>
       </c>
-      <c r="G16" s="92">
+      <c r="H16" s="92">
         <v>382.66</v>
       </c>
-      <c r="H16" s="92">
+      <c r="I16" s="92">
         <v>764.5</v>
       </c>
-      <c r="I16" s="92">
+      <c r="J16" s="92">
         <v>4.6900000000000013</v>
       </c>
-      <c r="J16" s="92">
+      <c r="K16" s="92">
         <v>5.91</v>
       </c>
-      <c r="K16" s="92">
+      <c r="L16" s="92">
         <v>11.529999999999998</v>
       </c>
-      <c r="L16" s="92">
+      <c r="M16" s="92">
         <v>27.630000000000003</v>
       </c>
-      <c r="M16" s="92">
+      <c r="N16" s="92">
         <v>49.759999999999991</v>
       </c>
-      <c r="N16" s="92"/>
-      <c r="O16" s="90"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
+      <c r="O16" s="92"/>
+      <c r="P16" s="90"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="C17" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="91">
+      <c r="D17" s="91">
         <v>20210730</v>
       </c>
-      <c r="D17" s="92">
+      <c r="E17" s="92">
         <v>203.20999999999998</v>
       </c>
-      <c r="E17" s="92">
+      <c r="F17" s="92">
         <v>20.29</v>
       </c>
-      <c r="F17" s="92">
+      <c r="G17" s="92">
         <v>30.22</v>
       </c>
-      <c r="G17" s="92">
+      <c r="H17" s="92">
         <v>50.76</v>
       </c>
-      <c r="H17" s="92">
+      <c r="I17" s="92">
         <v>101.94</v>
       </c>
-      <c r="I17" s="92">
+      <c r="J17" s="92">
         <v>0.90000000000000036</v>
       </c>
-      <c r="J17" s="92">
+      <c r="K17" s="92">
         <v>0.78000000000000114</v>
       </c>
-      <c r="K17" s="92">
+      <c r="L17" s="92">
         <v>0.96999999999999886</v>
       </c>
-      <c r="L17" s="92">
+      <c r="M17" s="92">
         <v>2.9299999999999997</v>
       </c>
-      <c r="M17" s="92">
+      <c r="N17" s="92">
         <v>5.58</v>
       </c>
-      <c r="N17" s="92"/>
-      <c r="O17" s="90"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
+      <c r="O17" s="92"/>
+      <c r="P17" s="90"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="C18" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="91">
+      <c r="D18" s="91">
         <v>20210729</v>
       </c>
-      <c r="D18" s="92">
+      <c r="E18" s="92">
         <v>526.51</v>
       </c>
-      <c r="E18" s="92">
+      <c r="F18" s="92">
         <v>52.79</v>
       </c>
-      <c r="F18" s="92">
+      <c r="G18" s="92">
         <v>77.61</v>
       </c>
-      <c r="G18" s="92">
+      <c r="H18" s="92">
         <v>132.05000000000001</v>
       </c>
-      <c r="H18" s="92">
+      <c r="I18" s="92">
         <v>264.06</v>
       </c>
-      <c r="I18" s="92">
+      <c r="J18" s="92">
         <v>0.85999999999999943</v>
       </c>
-      <c r="J18" s="92">
+      <c r="K18" s="92">
         <v>1.92</v>
       </c>
-      <c r="K18" s="92">
+      <c r="L18" s="92">
         <v>5.6400000000000006</v>
       </c>
-      <c r="L18" s="92">
+      <c r="M18" s="92">
         <v>9.2999999999999972</v>
       </c>
-      <c r="M18" s="92">
+      <c r="N18" s="92">
         <v>17.72</v>
       </c>
-      <c r="N18" s="92"/>
-      <c r="O18" s="90"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
+      <c r="O18" s="92"/>
+      <c r="P18" s="90"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="C19" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="91">
+      <c r="D19" s="91">
         <v>20210729</v>
       </c>
-      <c r="D19" s="92">
+      <c r="E19" s="92">
         <v>149.30000000000001</v>
       </c>
-      <c r="E19" s="92">
+      <c r="F19" s="92">
         <v>14.86</v>
       </c>
-      <c r="F19" s="92">
+      <c r="G19" s="92">
         <v>22.12</v>
       </c>
-      <c r="G19" s="92">
+      <c r="H19" s="92">
         <v>37.47</v>
       </c>
-      <c r="H19" s="92">
+      <c r="I19" s="92">
         <v>74.849999999999994</v>
       </c>
-      <c r="I19" s="92">
+      <c r="J19" s="92">
         <v>0.23000000000000043</v>
       </c>
-      <c r="J19" s="92">
+      <c r="K19" s="92">
         <v>0.41000000000000014</v>
       </c>
-      <c r="K19" s="92">
+      <c r="L19" s="92">
         <v>0.52999999999999936</v>
       </c>
-      <c r="L19" s="92">
+      <c r="M19" s="92">
         <v>1.2699999999999996</v>
       </c>
-      <c r="M19" s="92">
+      <c r="N19" s="92">
         <v>2.4399999999999995</v>
       </c>
-      <c r="N19" s="92" t="s">
+      <c r="O19" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="90"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="90" t="s">
+      <c r="P19" s="90"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="C20" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="91">
+      <c r="D20" s="91">
         <v>20210728</v>
       </c>
-      <c r="D20" s="92">
+      <c r="E20" s="92">
         <v>239.39999999999998</v>
       </c>
-      <c r="E20" s="92">
+      <c r="F20" s="92">
         <v>23.97</v>
       </c>
-      <c r="F20" s="92">
+      <c r="G20" s="92">
         <v>35.79</v>
       </c>
-      <c r="G20" s="92">
+      <c r="H20" s="92">
         <v>59.79</v>
       </c>
-      <c r="H20" s="92">
+      <c r="I20" s="92">
         <v>119.85</v>
       </c>
-      <c r="I20" s="92">
+      <c r="J20" s="92">
         <v>2.4700000000000006</v>
       </c>
-      <c r="J20" s="92">
+      <c r="K20" s="92">
         <v>3.620000000000001</v>
       </c>
-      <c r="K20" s="92">
+      <c r="L20" s="92">
         <v>5.59</v>
       </c>
-      <c r="L20" s="92">
+      <c r="M20" s="92">
         <v>12.23</v>
       </c>
-      <c r="M20" s="92">
+      <c r="N20" s="92">
         <v>23.910000000000004</v>
       </c>
-      <c r="N20" s="92"/>
-      <c r="O20" s="90"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="O20" s="92"/>
+      <c r="P20" s="90"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="C21" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="91">
+      <c r="D21" s="91">
         <v>20210728</v>
       </c>
-      <c r="D21" s="92">
+      <c r="E21" s="92">
         <v>561.30999999999995</v>
       </c>
-      <c r="E21" s="92">
+      <c r="F21" s="92">
         <v>56.19</v>
       </c>
-      <c r="F21" s="92">
+      <c r="G21" s="92">
         <v>83.47</v>
       </c>
-      <c r="G21" s="92">
+      <c r="H21" s="92">
         <v>140.58000000000001</v>
       </c>
-      <c r="H21" s="92">
+      <c r="I21" s="92">
         <v>281.07</v>
       </c>
-      <c r="I21" s="92">
+      <c r="J21" s="92">
         <v>3.9400000000000013</v>
       </c>
-      <c r="J21" s="92">
+      <c r="K21" s="92">
         <v>4.9399999999999995</v>
       </c>
-      <c r="K21" s="92">
+      <c r="L21" s="92">
         <v>6.7799999999999994</v>
       </c>
-      <c r="L21" s="92">
+      <c r="M21" s="92">
         <v>15.379999999999999</v>
       </c>
-      <c r="M21" s="92">
+      <c r="N21" s="92">
         <v>31.039999999999996</v>
       </c>
-      <c r="N21" s="92"/>
-      <c r="O21" s="90"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="90" t="s">
+      <c r="O21" s="92"/>
+      <c r="P21" s="90"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="C22" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="91">
+      <c r="D22" s="91">
         <v>20210728</v>
       </c>
-      <c r="D22" s="92">
+      <c r="E22" s="92">
         <v>586.27</v>
       </c>
-      <c r="E22" s="92">
+      <c r="F22" s="92">
         <v>58.8</v>
       </c>
-      <c r="F22" s="92">
+      <c r="G22" s="92">
         <v>86.63</v>
       </c>
-      <c r="G22" s="92">
+      <c r="H22" s="92">
         <v>146.97999999999999</v>
       </c>
-      <c r="H22" s="92">
+      <c r="I22" s="92">
         <v>293.86</v>
       </c>
-      <c r="I22" s="92">
+      <c r="J22" s="92">
         <v>5.0399999999999991</v>
       </c>
-      <c r="J22" s="92">
+      <c r="K22" s="92">
         <v>7.66</v>
       </c>
-      <c r="K22" s="92">
+      <c r="L22" s="92">
         <v>10.350000000000001</v>
       </c>
-      <c r="L22" s="92">
+      <c r="M22" s="92">
         <v>28.83</v>
       </c>
-      <c r="M22" s="92">
+      <c r="N22" s="92">
         <v>51.88</v>
       </c>
-      <c r="N22" s="92"/>
-      <c r="O22" s="90"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="90" t="s">
+      <c r="O22" s="92"/>
+      <c r="P22" s="90"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="C23" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="91">
+      <c r="D23" s="91">
         <v>20210726</v>
       </c>
-      <c r="D23" s="92">
+      <c r="E23" s="92">
         <v>204.22000000000003</v>
       </c>
-      <c r="E23" s="92">
+      <c r="F23" s="92">
         <v>20.61</v>
       </c>
-      <c r="F23" s="92">
+      <c r="G23" s="92">
         <v>29.75</v>
       </c>
-      <c r="G23" s="92">
+      <c r="H23" s="92">
         <v>51.25</v>
       </c>
-      <c r="H23" s="92">
+      <c r="I23" s="92">
         <v>102.61</v>
       </c>
-      <c r="I23" s="92">
+      <c r="J23" s="92">
         <v>1.1000000000000014</v>
       </c>
-      <c r="J23" s="92">
+      <c r="K23" s="92">
         <v>1.0099999999999998</v>
       </c>
-      <c r="K23" s="92">
+      <c r="L23" s="92">
         <v>4.1099999999999994</v>
       </c>
-      <c r="L23" s="92">
+      <c r="M23" s="92">
         <v>4.9699999999999989</v>
       </c>
-      <c r="M23" s="92">
+      <c r="N23" s="92">
         <v>11.19</v>
       </c>
-      <c r="N23" s="92" t="s">
+      <c r="O23" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="O23" s="90"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="90" t="s">
+      <c r="P23" s="90"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="C24" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="91">
+      <c r="D24" s="91">
         <v>20210726</v>
       </c>
-      <c r="D24" s="92">
+      <c r="E24" s="92">
         <v>381.26000000000005</v>
       </c>
-      <c r="E24" s="92">
+      <c r="F24" s="92">
         <v>38.31</v>
       </c>
-      <c r="F24" s="92">
+      <c r="G24" s="92">
         <v>56.42</v>
       </c>
-      <c r="G24" s="92">
+      <c r="H24" s="92">
         <v>95.48</v>
       </c>
-      <c r="H24" s="92">
+      <c r="I24" s="92">
         <v>191.05</v>
       </c>
-      <c r="I24" s="92">
+      <c r="J24" s="92">
         <v>2.6800000000000015</v>
       </c>
-      <c r="J24" s="92">
+      <c r="K24" s="92">
         <v>2.8599999999999994</v>
       </c>
-      <c r="K24" s="92">
+      <c r="L24" s="92">
         <v>2.7100000000000009</v>
       </c>
-      <c r="L24" s="92">
+      <c r="M24" s="92">
         <v>12.549999999999999</v>
       </c>
-      <c r="M24" s="92">
+      <c r="N24" s="92">
         <v>20.799999999999997</v>
       </c>
-      <c r="N24" s="92" t="s">
+      <c r="O24" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="O24" s="90"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="90" t="s">
+      <c r="P24" s="90"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="C25" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="91">
+      <c r="D25" s="91">
         <v>20210729</v>
       </c>
-      <c r="D25" s="92">
+      <c r="E25" s="92">
         <v>357.38</v>
       </c>
-      <c r="E25" s="92">
+      <c r="F25" s="92">
         <v>35.86</v>
       </c>
-      <c r="F25" s="92">
+      <c r="G25" s="92">
         <v>52.53</v>
       </c>
-      <c r="G25" s="92">
+      <c r="H25" s="92">
         <v>89.68</v>
       </c>
-      <c r="H25" s="92">
+      <c r="I25" s="92">
         <v>179.31</v>
       </c>
-      <c r="I25" s="92">
+      <c r="J25" s="92">
         <v>1.5899999999999999</v>
       </c>
-      <c r="J25" s="92">
+      <c r="K25" s="92">
         <v>1.870000000000001</v>
       </c>
-      <c r="K25" s="92">
+      <c r="L25" s="92">
         <v>3.8800000000000008</v>
       </c>
-      <c r="L25" s="92">
+      <c r="M25" s="92">
         <v>8.5799999999999983</v>
       </c>
-      <c r="M25" s="92">
+      <c r="N25" s="92">
         <v>15.92</v>
       </c>
-      <c r="N25" s="92"/>
-      <c r="O25" s="90"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="90" t="s">
+      <c r="O25" s="92"/>
+      <c r="P25" s="90"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="C26" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="91">
+      <c r="D26" s="91">
         <v>20210726</v>
       </c>
-      <c r="D26" s="92">
+      <c r="E26" s="92">
         <v>370.00000000000006</v>
       </c>
-      <c r="E26" s="92">
+      <c r="F26" s="92">
         <v>37.119999999999997</v>
       </c>
-      <c r="F26" s="92">
+      <c r="G26" s="92">
         <v>54.67</v>
       </c>
-      <c r="G26" s="92">
+      <c r="H26" s="92">
         <v>92.75</v>
       </c>
-      <c r="H26" s="92">
+      <c r="I26" s="92">
         <v>185.46</v>
       </c>
-      <c r="I26" s="92">
+      <c r="J26" s="92">
         <v>1.6899999999999995</v>
       </c>
-      <c r="J26" s="92">
+      <c r="K26" s="92">
         <v>3.4499999999999993</v>
       </c>
-      <c r="K26" s="92">
+      <c r="L26" s="92">
         <v>5.7900000000000009</v>
       </c>
-      <c r="L26" s="92">
+      <c r="M26" s="92">
         <v>11.080000000000002</v>
       </c>
-      <c r="M26" s="92">
+      <c r="N26" s="92">
         <v>22.010000000000005</v>
       </c>
-      <c r="N26" s="92"/>
-      <c r="O26" s="90"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="90" t="s">
+      <c r="O26" s="92"/>
+      <c r="P26" s="90"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="C27" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="91">
+      <c r="D27" s="91">
         <v>20210729</v>
       </c>
-      <c r="D27" s="92">
+      <c r="E27" s="92">
         <v>362.97999999999996</v>
       </c>
-      <c r="E27" s="92">
+      <c r="F27" s="92">
         <v>36.39</v>
       </c>
-      <c r="F27" s="92">
+      <c r="G27" s="92">
         <v>52.26</v>
       </c>
-      <c r="G27" s="92">
+      <c r="H27" s="92">
         <v>91.55</v>
       </c>
-      <c r="H27" s="92">
+      <c r="I27" s="92">
         <v>182.78</v>
       </c>
-      <c r="I27" s="92">
+      <c r="J27" s="92">
         <v>3.4800000000000004</v>
       </c>
-      <c r="J27" s="92">
+      <c r="K27" s="92">
         <v>4.5600000000000005</v>
       </c>
-      <c r="K27" s="92">
+      <c r="L27" s="92">
         <v>7.49</v>
       </c>
-      <c r="L27" s="92">
+      <c r="M27" s="92">
         <v>17</v>
       </c>
-      <c r="M27" s="92">
+      <c r="N27" s="92">
         <v>32.53</v>
       </c>
-      <c r="N27" s="92"/>
-      <c r="O27" s="90"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="90" t="s">
+      <c r="O27" s="92"/>
+      <c r="P27" s="90"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="C28" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="91">
+      <c r="D28" s="91">
         <v>20210726</v>
       </c>
-      <c r="D28" s="92">
+      <c r="E28" s="92">
         <v>845.12</v>
       </c>
-      <c r="E28" s="92">
+      <c r="F28" s="92">
         <v>84.11</v>
       </c>
-      <c r="F28" s="92">
+      <c r="G28" s="92">
         <v>126.36</v>
       </c>
-      <c r="G28" s="92">
+      <c r="H28" s="92">
         <v>211.5</v>
       </c>
-      <c r="H28" s="92">
+      <c r="I28" s="92">
         <v>423.15</v>
       </c>
-      <c r="I28" s="92">
+      <c r="J28" s="92">
         <v>5.5399999999999991</v>
       </c>
-      <c r="J28" s="92">
+      <c r="K28" s="92">
         <v>8.8699999999999974</v>
       </c>
-      <c r="K28" s="92">
+      <c r="L28" s="92">
         <v>10.78</v>
       </c>
-      <c r="L28" s="92">
+      <c r="M28" s="92">
         <v>27.249999999999996</v>
       </c>
-      <c r="M28" s="92">
+      <c r="N28" s="92">
         <v>52.439999999999991</v>
       </c>
-      <c r="N28" s="92"/>
-      <c r="O28" s="90"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="90" t="s">
+      <c r="O28" s="92"/>
+      <c r="P28" s="90"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="C29" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="91">
+      <c r="D29" s="91">
         <v>20210728</v>
       </c>
-      <c r="D29" s="92">
+      <c r="E29" s="92">
         <v>1672.0400000000002</v>
       </c>
-      <c r="E29" s="92">
+      <c r="F29" s="92">
         <v>167.64</v>
       </c>
-      <c r="F29" s="92">
+      <c r="G29" s="92">
         <v>249.18</v>
       </c>
-      <c r="G29" s="92">
+      <c r="H29" s="92">
         <v>418.5</v>
       </c>
-      <c r="H29" s="92">
+      <c r="I29" s="92">
         <v>836.72</v>
       </c>
-      <c r="I29" s="92">
+      <c r="J29" s="92">
         <v>14.15</v>
       </c>
-      <c r="J29" s="92">
+      <c r="K29" s="92">
         <v>19.23</v>
       </c>
-      <c r="K29" s="92">
+      <c r="L29" s="92">
         <v>28.44</v>
       </c>
-      <c r="L29" s="92">
+      <c r="M29" s="92">
         <v>55.459999999999994</v>
       </c>
-      <c r="M29" s="92">
+      <c r="N29" s="92">
         <v>117.28</v>
       </c>
-      <c r="N29" s="92"/>
-      <c r="O29" s="90"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="90" t="s">
+      <c r="O29" s="92"/>
+      <c r="P29" s="90"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="C30" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="91">
+      <c r="D30" s="91">
         <v>20210729</v>
       </c>
-      <c r="D30" s="92">
+      <c r="E30" s="92">
         <v>292.87</v>
       </c>
-      <c r="E30" s="92">
+      <c r="F30" s="92">
         <v>29.33</v>
       </c>
-      <c r="F30" s="92">
+      <c r="G30" s="92">
         <v>43.35</v>
       </c>
-      <c r="G30" s="92">
+      <c r="H30" s="92">
         <v>73.45</v>
       </c>
-      <c r="H30" s="92">
+      <c r="I30" s="92">
         <v>146.74</v>
       </c>
-      <c r="I30" s="92">
+      <c r="J30" s="92">
         <v>1.3200000000000003</v>
       </c>
-      <c r="J30" s="92">
+      <c r="K30" s="92">
         <v>4.2199999999999989</v>
       </c>
-      <c r="K30" s="92">
+      <c r="L30" s="92">
         <v>5.0899999999999963</v>
       </c>
-      <c r="L30" s="92">
+      <c r="M30" s="92">
         <v>12.95</v>
       </c>
-      <c r="M30" s="92">
+      <c r="N30" s="92">
         <v>23.579999999999995</v>
       </c>
-      <c r="N30" s="92"/>
-      <c r="O30" s="90"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="90" t="s">
+      <c r="O30" s="92"/>
+      <c r="P30" s="90"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="C31" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="92">
+      <c r="D31" s="92">
         <v>20210809</v>
       </c>
-      <c r="D31" s="92">
+      <c r="E31" s="92">
         <v>696.62</v>
       </c>
-      <c r="E31" s="92">
+      <c r="F31" s="92">
         <v>70.45</v>
       </c>
-      <c r="F31" s="92">
+      <c r="G31" s="92">
         <v>97.88</v>
       </c>
-      <c r="G31" s="92">
+      <c r="H31" s="92">
         <v>176.12</v>
       </c>
-      <c r="H31" s="92">
+      <c r="I31" s="92">
         <v>352.17</v>
       </c>
-      <c r="I31" s="92">
+      <c r="J31" s="92">
         <v>6.08</v>
       </c>
-      <c r="J31" s="92">
+      <c r="K31" s="92">
         <v>7.379999999999999</v>
       </c>
-      <c r="K31" s="92">
+      <c r="L31" s="92">
         <v>12.990000000000002</v>
       </c>
-      <c r="L31" s="92">
+      <c r="M31" s="92">
         <v>24.340000000000003</v>
       </c>
-      <c r="M31" s="92">
+      <c r="N31" s="92">
         <v>50.790000000000006</v>
       </c>
-      <c r="N31" s="92"/>
-      <c r="O31" s="90"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="90" t="s">
+      <c r="O31" s="92"/>
+      <c r="P31" s="90"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="C32" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="92">
+      <c r="D32" s="92">
         <v>20210809</v>
       </c>
-      <c r="D32" s="92">
+      <c r="E32" s="92">
         <v>856.03</v>
       </c>
-      <c r="E32" s="92">
+      <c r="F32" s="92">
         <v>85.81</v>
       </c>
-      <c r="F32" s="92">
+      <c r="G32" s="92">
         <v>126.65</v>
       </c>
-      <c r="G32" s="92">
+      <c r="H32" s="92">
         <v>214.54</v>
       </c>
-      <c r="H32" s="92">
+      <c r="I32" s="92">
         <v>429.03</v>
       </c>
-      <c r="I32" s="92">
+      <c r="J32" s="92">
         <v>5.870000000000001</v>
       </c>
-      <c r="J32" s="92">
+      <c r="K32" s="92">
         <v>8.39</v>
       </c>
-      <c r="K32" s="92">
+      <c r="L32" s="92">
         <v>15.14</v>
       </c>
-      <c r="L32" s="92">
+      <c r="M32" s="92">
         <v>34.760000000000005</v>
       </c>
-      <c r="M32" s="92">
+      <c r="N32" s="92">
         <v>64.160000000000011</v>
       </c>
-      <c r="N32" s="92"/>
-      <c r="O32" s="90"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="90" t="s">
+      <c r="O32" s="92"/>
+      <c r="P32" s="90"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="C33" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="92">
+      <c r="D33" s="92">
         <v>20210809</v>
       </c>
-      <c r="D33" s="92">
+      <c r="E33" s="92">
         <v>762.1</v>
       </c>
-      <c r="E33" s="92">
+      <c r="F33" s="92">
         <v>76.22</v>
       </c>
-      <c r="F33" s="92">
+      <c r="G33" s="92">
         <v>113.86</v>
       </c>
-      <c r="G33" s="92">
+      <c r="H33" s="92">
         <v>190.72</v>
       </c>
-      <c r="H33" s="92">
+      <c r="I33" s="92">
         <v>381.3</v>
       </c>
-      <c r="I33" s="92">
+      <c r="J33" s="92">
         <v>7.0500000000000007</v>
       </c>
-      <c r="J33" s="92">
+      <c r="K33" s="92">
         <v>8.0300000000000011</v>
       </c>
-      <c r="K33" s="92">
+      <c r="L33" s="92">
         <v>18.29</v>
       </c>
-      <c r="L33" s="92">
+      <c r="M33" s="92">
         <v>33.540000000000006</v>
       </c>
-      <c r="M33" s="92">
+      <c r="N33" s="92">
         <v>66.910000000000011</v>
       </c>
-      <c r="N33" s="92" t="s">
+      <c r="O33" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="90"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="90" t="s">
+      <c r="P33" s="90"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="C34" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="92">
+      <c r="D34" s="92">
         <v>20210809</v>
       </c>
-      <c r="D34" s="92">
+      <c r="E34" s="92">
         <v>527.78000000000009</v>
       </c>
-      <c r="E34" s="92">
+      <c r="F34" s="92">
         <v>53.85</v>
       </c>
-      <c r="F34" s="92">
+      <c r="G34" s="92">
         <v>70.22</v>
       </c>
-      <c r="G34" s="92">
+      <c r="H34" s="92">
         <v>134.61000000000001</v>
       </c>
-      <c r="H34" s="92">
+      <c r="I34" s="92">
         <v>269.10000000000002</v>
       </c>
-      <c r="I34" s="92">
+      <c r="J34" s="92">
         <v>3.66</v>
       </c>
-      <c r="J34" s="92">
+      <c r="K34" s="92">
         <v>4.2700000000000014</v>
       </c>
-      <c r="K34" s="92">
+      <c r="L34" s="92">
         <v>9.34</v>
       </c>
-      <c r="L34" s="92">
+      <c r="M34" s="92">
         <v>18.02</v>
       </c>
-      <c r="M34" s="92">
+      <c r="N34" s="92">
         <v>35.290000000000006</v>
       </c>
-      <c r="N34" s="92"/>
-      <c r="O34" s="90"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="90" t="s">
+      <c r="O34" s="92"/>
+      <c r="P34" s="90"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="C35" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="92">
+      <c r="D35" s="92">
         <v>20210809</v>
       </c>
-      <c r="D35" s="92">
+      <c r="E35" s="92">
         <v>680.24</v>
       </c>
-      <c r="E35" s="92">
+      <c r="F35" s="92">
         <v>68.27</v>
       </c>
-      <c r="F35" s="92">
+      <c r="G35" s="92">
         <v>100.23</v>
       </c>
-      <c r="G35" s="92">
+      <c r="H35" s="92">
         <v>170.57</v>
       </c>
-      <c r="H35" s="92">
+      <c r="I35" s="92">
         <v>341.17</v>
       </c>
-      <c r="I35" s="92">
+      <c r="J35" s="92">
         <v>5.57</v>
       </c>
-      <c r="J35" s="92">
+      <c r="K35" s="92">
         <v>7.240000000000002</v>
       </c>
-      <c r="K35" s="92">
+      <c r="L35" s="92">
         <v>12.07</v>
       </c>
-      <c r="L35" s="92">
+      <c r="M35" s="92">
         <v>26.4</v>
       </c>
-      <c r="M35" s="92">
+      <c r="N35" s="92">
         <v>51.28</v>
       </c>
-      <c r="N35" s="92"/>
-      <c r="O35" s="90"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="90" t="s">
+      <c r="O35" s="92"/>
+      <c r="P35" s="90"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="C36" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="92">
+      <c r="D36" s="92">
         <v>20210809</v>
       </c>
-      <c r="D36" s="92">
+      <c r="E36" s="92">
         <v>272.22999999999996</v>
       </c>
-      <c r="E36" s="92">
+      <c r="F36" s="92">
         <v>27.52</v>
       </c>
-      <c r="F36" s="92">
+      <c r="G36" s="92">
         <v>39.01</v>
       </c>
-      <c r="G36" s="92">
+      <c r="H36" s="92">
         <v>68.569999999999993</v>
       </c>
-      <c r="H36" s="92">
+      <c r="I36" s="92">
         <v>137.13</v>
       </c>
-      <c r="I36" s="92">
+      <c r="J36" s="92">
         <v>1.8499999999999996</v>
       </c>
-      <c r="J36" s="92">
+      <c r="K36" s="92">
         <v>3.0299999999999994</v>
       </c>
-      <c r="K36" s="92">
+      <c r="L36" s="92">
         <v>4.83</v>
       </c>
-      <c r="L36" s="92">
+      <c r="M36" s="92">
         <v>8.860000000000003</v>
       </c>
-      <c r="M36" s="92">
+      <c r="N36" s="92">
         <v>18.57</v>
       </c>
-      <c r="N36" s="92"/>
-      <c r="O36" s="90"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="90" t="s">
+      <c r="O36" s="92"/>
+      <c r="P36" s="90"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="C37" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="92">
+      <c r="D37" s="92">
         <v>20210809</v>
       </c>
-      <c r="D37" s="92">
+      <c r="E37" s="92">
         <v>780.17000000000007</v>
       </c>
-      <c r="E37" s="92">
+      <c r="F37" s="92">
         <v>78.37</v>
       </c>
-      <c r="F37" s="92">
+      <c r="G37" s="92">
         <v>113.84</v>
       </c>
-      <c r="G37" s="92">
+      <c r="H37" s="92">
         <v>195.98</v>
       </c>
-      <c r="H37" s="92">
+      <c r="I37" s="92">
         <v>391.98</v>
       </c>
-      <c r="I37" s="92">
+      <c r="J37" s="92">
         <v>6.5300000000000011</v>
       </c>
-      <c r="J37" s="92">
+      <c r="K37" s="92">
         <v>10.200000000000001</v>
       </c>
-      <c r="K37" s="92">
+      <c r="L37" s="92">
         <v>14.710000000000004</v>
       </c>
-      <c r="L37" s="92">
+      <c r="M37" s="92">
         <v>32.629999999999995</v>
       </c>
-      <c r="M37" s="92">
+      <c r="N37" s="92">
         <v>64.070000000000007</v>
       </c>
-      <c r="N37" s="92"/>
-      <c r="O37" s="90"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="90" t="s">
+      <c r="O37" s="92"/>
+      <c r="P37" s="90"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="C38" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="92">
+      <c r="D38" s="92">
         <v>20210809</v>
       </c>
-      <c r="D38" s="92">
+      <c r="E38" s="92">
         <v>299.30999999999995</v>
       </c>
-      <c r="E38" s="92">
+      <c r="F38" s="92">
         <v>29.97</v>
       </c>
-      <c r="F38" s="92">
+      <c r="G38" s="92">
         <v>44.95</v>
       </c>
-      <c r="G38" s="92">
+      <c r="H38" s="92">
         <v>74.42</v>
       </c>
-      <c r="H38" s="92">
+      <c r="I38" s="92">
         <v>149.97</v>
       </c>
-      <c r="I38" s="92">
+      <c r="J38" s="92">
         <v>1.5899999999999999</v>
       </c>
-      <c r="J38" s="92">
+      <c r="K38" s="92">
         <v>2.1199999999999992</v>
       </c>
-      <c r="K38" s="92">
+      <c r="L38" s="92">
         <v>3.6500000000000004</v>
       </c>
-      <c r="L38" s="92">
+      <c r="M38" s="92">
         <v>7.1000000000000014</v>
       </c>
-      <c r="M38" s="92">
+      <c r="N38" s="92">
         <v>14.46</v>
       </c>
-      <c r="N38" s="92"/>
-      <c r="O38" s="90"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="90" t="s">
+      <c r="O38" s="92"/>
+      <c r="P38" s="90"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="C39" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="92">
+      <c r="D39" s="92">
         <v>20210809</v>
       </c>
-      <c r="D39" s="92">
+      <c r="E39" s="92">
         <v>1296</v>
       </c>
-      <c r="E39" s="92">
+      <c r="F39" s="92">
         <v>133.19999999999999</v>
       </c>
-      <c r="F39" s="92">
+      <c r="G39" s="92">
         <v>165.52</v>
       </c>
-      <c r="G39" s="92">
+      <c r="H39" s="92">
         <v>332.22</v>
       </c>
-      <c r="H39" s="92">
+      <c r="I39" s="92">
         <v>665.06</v>
       </c>
-      <c r="I39" s="92">
+      <c r="J39" s="92">
         <v>13.16</v>
       </c>
-      <c r="J39" s="92">
+      <c r="K39" s="92">
         <v>16.579999999999998</v>
       </c>
-      <c r="K39" s="92">
+      <c r="L39" s="92">
         <v>29.87</v>
       </c>
-      <c r="L39" s="92">
+      <c r="M39" s="92">
         <v>60.06</v>
       </c>
-      <c r="M39" s="92">
+      <c r="N39" s="92">
         <v>119.67</v>
       </c>
-      <c r="N39" s="93" t="s">
+      <c r="O39" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="O39" s="90"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="90" t="s">
+      <c r="P39" s="90"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="C40" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="92">
+      <c r="D40" s="92">
         <v>20210809</v>
       </c>
-      <c r="D40" s="92">
+      <c r="E40" s="92">
         <v>114.89</v>
       </c>
-      <c r="E40" s="92">
+      <c r="F40" s="92">
         <v>11.64</v>
       </c>
-      <c r="F40" s="92">
+      <c r="G40" s="92">
         <v>16.12</v>
       </c>
-      <c r="G40" s="92">
+      <c r="H40" s="92">
         <v>29.06</v>
       </c>
-      <c r="H40" s="92">
+      <c r="I40" s="92">
         <v>58.07</v>
       </c>
-      <c r="I40" s="92">
+      <c r="J40" s="92">
         <v>1.08</v>
       </c>
-      <c r="J40" s="92">
+      <c r="K40" s="92">
         <v>1.5200000000000014</v>
       </c>
-      <c r="K40" s="92">
+      <c r="L40" s="92">
         <v>2.6999999999999993</v>
       </c>
-      <c r="L40" s="92">
+      <c r="M40" s="92">
         <v>5.41</v>
       </c>
-      <c r="M40" s="92">
+      <c r="N40" s="92">
         <v>10.71</v>
       </c>
-      <c r="N40" s="92"/>
-      <c r="O40" s="90"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="90" t="s">
+      <c r="O40" s="92"/>
+      <c r="P40" s="90"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="C41" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="92">
+      <c r="D41" s="92">
         <v>20210810</v>
       </c>
-      <c r="D41" s="92">
+      <c r="E41" s="92">
         <v>153.05000000000001</v>
       </c>
-      <c r="E41" s="92">
+      <c r="F41" s="92">
         <v>15.44</v>
       </c>
-      <c r="F41" s="92">
+      <c r="G41" s="92">
         <v>21.88</v>
       </c>
-      <c r="G41" s="92">
+      <c r="H41" s="92">
         <v>38.58</v>
       </c>
-      <c r="H41" s="92">
+      <c r="I41" s="92">
         <v>77.150000000000006</v>
       </c>
-      <c r="I41" s="92">
+      <c r="J41" s="92">
         <v>1.67</v>
       </c>
-      <c r="J41" s="92">
+      <c r="K41" s="92">
         <v>2.0299999999999994</v>
       </c>
-      <c r="K41" s="92">
+      <c r="L41" s="92">
         <v>4.1099999999999994</v>
       </c>
-      <c r="L41" s="92">
+      <c r="M41" s="92">
         <v>7.6399999999999988</v>
       </c>
-      <c r="M41" s="92">
+      <c r="N41" s="92">
         <v>15.449999999999998</v>
       </c>
-      <c r="N41" s="92"/>
-      <c r="O41" s="90"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="90" t="s">
+      <c r="O41" s="92"/>
+      <c r="P41" s="90"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="C42" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="92">
+      <c r="D42" s="92">
         <v>20210810</v>
       </c>
-      <c r="D42" s="92">
+      <c r="E42" s="92">
         <v>99.38000000000001</v>
       </c>
-      <c r="E42" s="92">
+      <c r="F42" s="92">
         <v>10.06</v>
       </c>
-      <c r="F42" s="92">
+      <c r="G42" s="92">
         <v>13.76</v>
       </c>
-      <c r="G42" s="92">
+      <c r="H42" s="92">
         <v>25.12</v>
       </c>
-      <c r="H42" s="92">
+      <c r="I42" s="92">
         <v>50.44</v>
       </c>
-      <c r="I42" s="92">
+      <c r="J42" s="92">
         <v>0.78999999999999915</v>
       </c>
-      <c r="J42" s="92">
+      <c r="K42" s="92">
         <v>1.2600000000000016</v>
       </c>
-      <c r="K42" s="92">
+      <c r="L42" s="92">
         <v>2.3100000000000005</v>
       </c>
-      <c r="L42" s="92">
+      <c r="M42" s="92">
         <v>4.4700000000000006</v>
       </c>
-      <c r="M42" s="92">
+      <c r="N42" s="92">
         <v>8.8300000000000018</v>
       </c>
-      <c r="N42" s="92"/>
-      <c r="O42" s="90"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="90" t="s">
+      <c r="O42" s="92"/>
+      <c r="P42" s="90"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="C43" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="92">
+      <c r="D43" s="92">
         <v>20210810</v>
       </c>
-      <c r="D43" s="92">
+      <c r="E43" s="92">
         <v>309.18</v>
       </c>
-      <c r="E43" s="92">
+      <c r="F43" s="92">
         <v>31.18</v>
       </c>
-      <c r="F43" s="92">
+      <c r="G43" s="92">
         <v>44.5</v>
       </c>
-      <c r="G43" s="92">
+      <c r="H43" s="92">
         <v>77.84</v>
       </c>
-      <c r="H43" s="92">
+      <c r="I43" s="92">
         <v>155.66</v>
       </c>
-      <c r="I43" s="92">
+      <c r="J43" s="92">
         <v>1.3499999999999996</v>
       </c>
-      <c r="J43" s="92">
+      <c r="K43" s="92">
         <v>2.120000000000001</v>
       </c>
-      <c r="K43" s="92">
+      <c r="L43" s="92">
         <v>5.3000000000000007</v>
       </c>
-      <c r="L43" s="92">
+      <c r="M43" s="92">
         <v>12.889999999999999</v>
       </c>
-      <c r="M43" s="92">
+      <c r="N43" s="92">
         <v>21.659999999999997</v>
       </c>
-      <c r="N43" s="92"/>
-      <c r="O43" s="90"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="90" t="s">
+      <c r="O43" s="92"/>
+      <c r="P43" s="90"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="C44" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="92">
+      <c r="D44" s="92">
         <v>20210810</v>
       </c>
-      <c r="D44" s="92">
+      <c r="E44" s="92">
         <v>501.69</v>
       </c>
-      <c r="E44" s="92">
+      <c r="F44" s="92">
         <v>50.46</v>
       </c>
-      <c r="F44" s="92">
+      <c r="G44" s="92">
         <v>72.55</v>
       </c>
-      <c r="G44" s="92">
+      <c r="H44" s="92">
         <v>126.21</v>
       </c>
-      <c r="H44" s="92">
+      <c r="I44" s="92">
         <v>252.47</v>
       </c>
-      <c r="I44" s="92">
+      <c r="J44" s="92">
         <v>3.1399999999999988</v>
       </c>
-      <c r="J44" s="92">
+      <c r="K44" s="92">
         <v>4.4600000000000009</v>
       </c>
-      <c r="K44" s="92">
+      <c r="L44" s="92">
         <v>7.5500000000000007</v>
       </c>
-      <c r="L44" s="92">
+      <c r="M44" s="92">
         <v>16.909999999999997</v>
       </c>
-      <c r="M44" s="92">
+      <c r="N44" s="92">
         <v>32.059999999999995</v>
       </c>
-      <c r="N44" s="92"/>
-      <c r="O44" s="90"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="90" t="s">
+      <c r="O44" s="92"/>
+      <c r="P44" s="90"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="C45" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="92">
+      <c r="D45" s="92">
         <v>20210810</v>
       </c>
-      <c r="D45" s="92">
+      <c r="E45" s="92">
         <v>177.42000000000002</v>
       </c>
-      <c r="E45" s="92">
+      <c r="F45" s="92">
         <v>18.239999999999998</v>
       </c>
-      <c r="F45" s="92">
+      <c r="G45" s="92">
         <v>24.96</v>
       </c>
-      <c r="G45" s="92">
+      <c r="H45" s="92">
         <v>44.59</v>
       </c>
-      <c r="H45" s="92">
+      <c r="I45" s="92">
         <v>89.63</v>
       </c>
-      <c r="I45" s="92">
+      <c r="J45" s="92">
         <v>1.2200000000000006</v>
       </c>
-      <c r="J45" s="92">
+      <c r="K45" s="92">
         <v>1.58</v>
       </c>
-      <c r="K45" s="92">
+      <c r="L45" s="92">
         <v>2.3999999999999986</v>
       </c>
-      <c r="L45" s="92">
+      <c r="M45" s="92">
         <v>6.34</v>
       </c>
-      <c r="M45" s="92">
+      <c r="N45" s="92">
         <v>11.54</v>
       </c>
-      <c r="N45" s="92"/>
-      <c r="O45" s="90"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="90" t="s">
+      <c r="O45" s="92"/>
+      <c r="P45" s="90"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="C46" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="92">
+      <c r="D46" s="92">
         <v>20210810</v>
       </c>
-      <c r="D46" s="92">
+      <c r="E46" s="92">
         <v>268.88</v>
       </c>
-      <c r="E46" s="92">
+      <c r="F46" s="92">
         <v>22.28</v>
       </c>
-      <c r="F46" s="92">
+      <c r="G46" s="92">
         <v>38.58</v>
       </c>
-      <c r="G46" s="92">
+      <c r="H46" s="92">
         <v>69.38</v>
       </c>
-      <c r="H46" s="92">
+      <c r="I46" s="92">
         <v>138.63999999999999</v>
       </c>
-      <c r="I46" s="92">
+      <c r="J46" s="92">
         <v>2.7799999999999994</v>
       </c>
-      <c r="J46" s="92">
+      <c r="K46" s="92">
         <v>2.76</v>
       </c>
-      <c r="K46" s="92">
+      <c r="L46" s="92">
         <v>5.9699999999999989</v>
       </c>
-      <c r="L46" s="92">
+      <c r="M46" s="92">
         <v>12.669999999999998</v>
       </c>
-      <c r="M46" s="92">
+      <c r="N46" s="92">
         <v>24.18</v>
       </c>
-      <c r="N46" s="92"/>
-      <c r="O46" s="90"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="90" t="s">
+      <c r="O46" s="92"/>
+      <c r="P46" s="90"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="C47" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="92">
+      <c r="D47" s="92">
         <v>20210810</v>
       </c>
-      <c r="D47" s="92">
+      <c r="E47" s="92">
         <v>263.21999999999997</v>
       </c>
-      <c r="E47" s="92">
+      <c r="F47" s="92">
         <v>26.46</v>
       </c>
-      <c r="F47" s="92">
+      <c r="G47" s="92">
         <v>38.15</v>
       </c>
-      <c r="G47" s="92">
+      <c r="H47" s="92">
         <v>66.19</v>
       </c>
-      <c r="H47" s="92">
+      <c r="I47" s="92">
         <v>132.41999999999999</v>
       </c>
-      <c r="I47" s="92">
+      <c r="J47" s="92">
         <v>1.370000000000001</v>
       </c>
-      <c r="J47" s="92">
+      <c r="K47" s="92">
         <v>1.42</v>
       </c>
-      <c r="K47" s="92">
+      <c r="L47" s="92">
         <v>2.3100000000000005</v>
       </c>
-      <c r="L47" s="92">
+      <c r="M47" s="92">
         <v>7.01</v>
       </c>
-      <c r="M47" s="92">
+      <c r="N47" s="92">
         <v>12.110000000000001</v>
       </c>
-      <c r="N47" s="92"/>
-      <c r="O47" s="90"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="90" t="s">
+      <c r="O47" s="92"/>
+      <c r="P47" s="90"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="C48" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="92">
+      <c r="D48" s="92">
         <v>20210810</v>
       </c>
-      <c r="D48" s="92">
+      <c r="E48" s="92">
         <v>219.82999999999998</v>
       </c>
-      <c r="E48" s="92">
+      <c r="F48" s="92">
         <v>22.25</v>
       </c>
-      <c r="F48" s="92">
+      <c r="G48" s="92">
         <v>30.56</v>
       </c>
-      <c r="G48" s="92">
+      <c r="H48" s="92">
         <v>55.45</v>
       </c>
-      <c r="H48" s="92">
+      <c r="I48" s="92">
         <v>111.57</v>
       </c>
-      <c r="I48" s="92">
+      <c r="J48" s="92">
         <v>1.7599999999999998</v>
       </c>
-      <c r="J48" s="92">
+      <c r="K48" s="92">
         <v>2.25</v>
       </c>
-      <c r="K48" s="92">
+      <c r="L48" s="92">
         <v>6.1000000000000014</v>
       </c>
-      <c r="L48" s="92">
+      <c r="M48" s="92">
         <v>9.64</v>
       </c>
-      <c r="M48" s="92">
+      <c r="N48" s="92">
         <v>19.75</v>
       </c>
-      <c r="N48" s="92"/>
-      <c r="O48" s="90"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="90" t="s">
+      <c r="O48" s="92"/>
+      <c r="P48" s="90"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="92" t="s">
+      <c r="C49" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="92">
+      <c r="D49" s="92">
         <v>20210811</v>
       </c>
-      <c r="D49" s="92">
+      <c r="E49" s="92">
         <v>258.32</v>
       </c>
-      <c r="E49" s="92">
+      <c r="F49" s="92">
         <v>26.09</v>
       </c>
-      <c r="F49" s="92">
+      <c r="G49" s="92">
         <v>36.71</v>
       </c>
-      <c r="G49" s="92">
+      <c r="H49" s="92">
         <v>65.17</v>
       </c>
-      <c r="H49" s="92">
+      <c r="I49" s="92">
         <v>130.35</v>
       </c>
-      <c r="I49" s="92">
+      <c r="J49" s="92">
         <v>2.5199999999999996</v>
       </c>
-      <c r="J49" s="92">
+      <c r="K49" s="92">
         <v>2.870000000000001</v>
       </c>
-      <c r="K49" s="92">
+      <c r="L49" s="92">
         <v>5.18</v>
       </c>
-      <c r="L49" s="92">
+      <c r="M49" s="92">
         <v>10.280000000000001</v>
       </c>
-      <c r="M49" s="92">
+      <c r="N49" s="92">
         <v>20.85</v>
       </c>
-      <c r="N49" s="92"/>
-      <c r="O49" s="90"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="90" t="s">
+      <c r="O49" s="92"/>
+      <c r="P49" s="90"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="C50" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="92">
+      <c r="D50" s="92">
         <v>20210811</v>
       </c>
-      <c r="D50" s="92">
+      <c r="E50" s="92">
         <v>120.53999999999999</v>
       </c>
-      <c r="E50" s="92">
+      <c r="F50" s="92">
         <v>12.27</v>
       </c>
-      <c r="F50" s="92">
+      <c r="G50" s="92">
         <v>16.579999999999998</v>
       </c>
-      <c r="G50" s="92">
+      <c r="H50" s="92">
         <v>30.56</v>
       </c>
-      <c r="H50" s="92">
+      <c r="I50" s="92">
         <v>61.13</v>
       </c>
-      <c r="I50" s="92">
+      <c r="J50" s="92">
         <v>1.3599999999999994</v>
       </c>
-      <c r="J50" s="92">
+      <c r="K50" s="92">
         <v>1.6400000000000006</v>
       </c>
-      <c r="K50" s="92">
+      <c r="L50" s="92">
         <v>3.3900000000000006</v>
       </c>
-      <c r="L50" s="92">
+      <c r="M50" s="92">
         <v>6.1900000000000013</v>
       </c>
-      <c r="M50" s="92">
+      <c r="N50" s="92">
         <v>12.580000000000002</v>
       </c>
-      <c r="N50" s="92"/>
-      <c r="O50" s="90"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="90" t="s">
+      <c r="O50" s="92"/>
+      <c r="P50" s="90"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="C51" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="92">
+      <c r="D51" s="92">
         <v>20210811</v>
       </c>
-      <c r="D51" s="92">
+      <c r="E51" s="92">
         <v>582.17999999999995</v>
       </c>
-      <c r="E51" s="92">
+      <c r="F51" s="92">
         <v>58.68</v>
       </c>
-      <c r="F51" s="92">
+      <c r="G51" s="92">
         <v>83.53</v>
       </c>
-      <c r="G51" s="92">
+      <c r="H51" s="92">
         <v>146.65</v>
       </c>
-      <c r="H51" s="92">
+      <c r="I51" s="92">
         <v>293.32</v>
       </c>
-      <c r="I51" s="92">
+      <c r="J51" s="92">
         <v>4.7200000000000006</v>
       </c>
-      <c r="J51" s="92">
+      <c r="K51" s="92">
         <v>6.6500000000000021</v>
       </c>
-      <c r="K51" s="92">
+      <c r="L51" s="92">
         <v>12.690000000000001</v>
       </c>
-      <c r="L51" s="92">
+      <c r="M51" s="92">
         <v>22.53</v>
       </c>
-      <c r="M51" s="92">
+      <c r="N51" s="92">
         <v>46.59</v>
       </c>
-      <c r="N51" s="92"/>
-      <c r="O51" s="90"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="90" t="s">
+      <c r="O51" s="92"/>
+      <c r="P51" s="90"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="92" t="s">
+      <c r="C52" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="92">
+      <c r="D52" s="92">
         <v>20210804</v>
       </c>
-      <c r="D52" s="92">
+      <c r="E52" s="92">
         <v>76.290000000000006</v>
       </c>
-      <c r="E52" s="92">
+      <c r="F52" s="92">
         <v>7.23</v>
       </c>
-      <c r="F52" s="92">
+      <c r="G52" s="92">
         <v>11.38</v>
       </c>
-      <c r="G52" s="92">
+      <c r="H52" s="92">
         <v>19.46</v>
       </c>
-      <c r="H52" s="92">
+      <c r="I52" s="92">
         <v>38.22</v>
       </c>
-      <c r="I52" s="92">
+      <c r="J52" s="92">
         <v>1.7400000000000002</v>
       </c>
-      <c r="J52" s="92">
+      <c r="K52" s="92">
         <v>0.78000000000000114</v>
       </c>
-      <c r="K52" s="92">
+      <c r="L52" s="92">
         <v>3.9899999999999984</v>
       </c>
-      <c r="L52" s="92">
+      <c r="M52" s="92">
         <v>8.9099999999999966</v>
       </c>
-      <c r="M52" s="92">
+      <c r="N52" s="92">
         <v>15.419999999999996</v>
       </c>
-      <c r="N52" s="90"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="90" t="s">
+      <c r="O52" s="90"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="C53" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="92">
+      <c r="D53" s="92">
         <v>20210803</v>
       </c>
-      <c r="D53" s="92">
+      <c r="E53" s="92">
         <v>94.960000000000008</v>
       </c>
-      <c r="E53" s="92">
+      <c r="F53" s="92">
         <v>9.5</v>
       </c>
-      <c r="F53" s="92">
+      <c r="G53" s="92">
         <v>14.25</v>
       </c>
-      <c r="G53" s="92">
+      <c r="H53" s="92">
         <v>23.72</v>
       </c>
-      <c r="H53" s="92">
+      <c r="I53" s="92">
         <v>47.49</v>
       </c>
-      <c r="I53" s="92">
+      <c r="J53" s="92">
         <v>3.1000000000000014</v>
       </c>
-      <c r="J53" s="92">
+      <c r="K53" s="92">
         <v>1.4000000000000004</v>
       </c>
-      <c r="K53" s="92">
+      <c r="L53" s="92">
         <v>7.0500000000000007</v>
       </c>
-      <c r="L53" s="92">
+      <c r="M53" s="92">
         <v>16.23</v>
       </c>
-      <c r="M53" s="92">
+      <c r="N53" s="92">
         <v>27.78</v>
       </c>
-      <c r="N53" s="90"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="90" t="s">
+      <c r="O53" s="90"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="C54" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="92">
+      <c r="D54" s="92">
         <v>20210921</v>
       </c>
-      <c r="D54" s="92">
+      <c r="E54" s="92">
         <v>264.32</v>
       </c>
-      <c r="E54" s="92">
+      <c r="F54" s="92">
         <v>26.67</v>
       </c>
-      <c r="F54" s="92">
+      <c r="G54" s="92">
         <v>37.64</v>
       </c>
-      <c r="G54" s="92">
+      <c r="H54" s="92">
         <v>66.53</v>
       </c>
-      <c r="H54" s="92">
+      <c r="I54" s="92">
         <v>133.47999999999999</v>
       </c>
-      <c r="I54" s="92">
+      <c r="J54" s="92">
         <v>2.7799999999999994</v>
       </c>
-      <c r="J54" s="92">
+      <c r="K54" s="92">
         <v>2.9700000000000006</v>
       </c>
-      <c r="K54" s="92">
+      <c r="L54" s="92">
         <v>6.2800000000000011</v>
       </c>
-      <c r="L54" s="92">
+      <c r="M54" s="92">
         <v>13.149999999999999</v>
       </c>
-      <c r="M54" s="92">
+      <c r="N54" s="92">
         <v>25.18</v>
       </c>
-      <c r="N54" s="90"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="90" t="s">
+      <c r="O54" s="90"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="C55" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="92">
+      <c r="D55" s="92">
         <v>20210803</v>
       </c>
-      <c r="D55" s="92">
+      <c r="E55" s="92">
         <v>87.410000000000011</v>
       </c>
-      <c r="E55" s="92">
+      <c r="F55" s="92">
         <v>8.15</v>
       </c>
-      <c r="F55" s="92">
+      <c r="G55" s="92">
         <v>12.83</v>
       </c>
-      <c r="G55" s="92">
+      <c r="H55" s="92">
         <v>22.17</v>
       </c>
-      <c r="H55" s="92">
+      <c r="I55" s="92">
         <v>44.26</v>
       </c>
-      <c r="I55" s="92">
+      <c r="J55" s="92">
         <v>1.3099999999999987</v>
       </c>
-      <c r="J55" s="92">
+      <c r="K55" s="92">
         <v>0.26999999999999957</v>
       </c>
-      <c r="K55" s="92">
+      <c r="L55" s="92">
         <v>4.83</v>
       </c>
-      <c r="L55" s="92">
+      <c r="M55" s="92">
         <v>11.769999999999996</v>
       </c>
-      <c r="M55" s="92">
+      <c r="N55" s="92">
         <v>18.179999999999993</v>
       </c>
-      <c r="N55" s="90"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="90" t="s">
+      <c r="O55" s="90"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="C56" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="92">
+      <c r="D56" s="92">
         <v>20210804</v>
       </c>
-      <c r="D56" s="92">
+      <c r="E56" s="92">
         <v>78.2</v>
       </c>
-      <c r="E56" s="92">
+      <c r="F56" s="92">
         <v>7.94</v>
       </c>
-      <c r="F56" s="92">
+      <c r="G56" s="92">
         <v>10.83</v>
       </c>
-      <c r="G56" s="92">
+      <c r="H56" s="92">
         <v>19.79</v>
       </c>
-      <c r="H56" s="92">
+      <c r="I56" s="92">
         <v>39.64</v>
       </c>
-      <c r="I56" s="92">
+      <c r="J56" s="92">
         <v>1.33</v>
       </c>
-      <c r="J56" s="92">
+      <c r="K56" s="92">
         <v>1.5299999999999994</v>
       </c>
-      <c r="K56" s="92">
+      <c r="L56" s="92">
         <v>3.09</v>
       </c>
-      <c r="L56" s="92">
+      <c r="M56" s="92">
         <v>6.85</v>
       </c>
-      <c r="M56" s="92">
+      <c r="N56" s="92">
         <v>12.799999999999999</v>
       </c>
-      <c r="N56" s="90"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="90" t="s">
+      <c r="O56" s="90"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="C57" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="92">
+      <c r="D57" s="92">
         <v>20210804</v>
       </c>
-      <c r="D57" s="92">
+      <c r="E57" s="92">
         <v>161.96</v>
       </c>
-      <c r="E57" s="92">
+      <c r="F57" s="92">
         <v>16.399999999999999</v>
       </c>
-      <c r="F57" s="92">
+      <c r="G57" s="92">
         <v>22.08</v>
       </c>
-      <c r="G57" s="92">
+      <c r="H57" s="92">
         <v>41.17</v>
       </c>
-      <c r="H57" s="92">
+      <c r="I57" s="92">
         <v>82.31</v>
       </c>
-      <c r="I57" s="92">
+      <c r="J57" s="92">
         <v>3.6799999999999997</v>
       </c>
-      <c r="J57" s="92">
+      <c r="K57" s="92">
         <v>3.7700000000000014</v>
       </c>
-      <c r="K57" s="92">
+      <c r="L57" s="92">
         <v>9.1599999999999984</v>
       </c>
-      <c r="L57" s="92">
+      <c r="M57" s="92">
         <v>19.410000000000004</v>
       </c>
-      <c r="M57" s="92">
+      <c r="N57" s="92">
         <v>36.020000000000003</v>
       </c>
-      <c r="N57" s="90"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="90" t="s">
+      <c r="O57" s="90"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="C58" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="92">
+      <c r="D58" s="92">
         <v>20210904</v>
       </c>
-      <c r="D58" s="92">
+      <c r="E58" s="92">
         <v>275.26</v>
       </c>
-      <c r="E58" s="92">
+      <c r="F58" s="92">
         <v>27.96</v>
       </c>
-      <c r="F58" s="92">
+      <c r="G58" s="92">
         <v>37.65</v>
       </c>
-      <c r="G58" s="92">
+      <c r="H58" s="92">
         <v>69.86</v>
       </c>
-      <c r="H58" s="92">
+      <c r="I58" s="92">
         <v>139.79</v>
       </c>
-      <c r="I58" s="92">
+      <c r="J58" s="92">
         <v>6.1900000000000013</v>
       </c>
-      <c r="J58" s="92">
+      <c r="K58" s="92">
         <v>5.6099999999999994</v>
       </c>
-      <c r="K58" s="92">
+      <c r="L58" s="92">
         <v>16.160000000000004</v>
       </c>
-      <c r="L58" s="92">
+      <c r="M58" s="92">
         <v>28.09</v>
       </c>
-      <c r="M58" s="92">
+      <c r="N58" s="92">
         <v>56.05</v>
       </c>
-      <c r="N58" s="90"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="90" t="s">
+      <c r="O58" s="90"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="C59" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="92">
+      <c r="D59" s="92">
         <v>20210803</v>
       </c>
-      <c r="D59" s="92">
+      <c r="E59" s="92">
         <v>109.64</v>
       </c>
-      <c r="E59" s="92">
+      <c r="F59" s="92">
         <v>11.03</v>
       </c>
-      <c r="F59" s="92">
+      <c r="G59" s="92">
         <v>15.84</v>
       </c>
-      <c r="G59" s="92">
+      <c r="H59" s="92">
         <v>27.58</v>
       </c>
-      <c r="H59" s="92">
+      <c r="I59" s="92">
         <v>55.19</v>
       </c>
-      <c r="I59" s="92">
+      <c r="J59" s="92">
         <v>2.0499999999999989</v>
       </c>
-      <c r="J59" s="92">
+      <c r="K59" s="92">
         <v>1.7300000000000004</v>
       </c>
-      <c r="K59" s="92">
+      <c r="L59" s="92">
         <v>5.85</v>
       </c>
-      <c r="L59" s="92">
+      <c r="M59" s="92">
         <v>12.48</v>
       </c>
-      <c r="M59" s="92">
+      <c r="N59" s="92">
         <v>22.11</v>
       </c>
-      <c r="N59" s="90"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="90" t="s">
+      <c r="O59" s="90"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="C60" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="92">
+      <c r="D60" s="92">
         <v>20210804</v>
       </c>
-      <c r="D60" s="92">
+      <c r="E60" s="92">
         <v>261.34999999999997</v>
       </c>
-      <c r="E60" s="92">
+      <c r="F60" s="92">
         <v>26.52</v>
       </c>
-      <c r="F60" s="92">
+      <c r="G60" s="92">
         <v>35.75</v>
       </c>
-      <c r="G60" s="92">
+      <c r="H60" s="92">
         <v>66.38</v>
       </c>
-      <c r="H60" s="92">
+      <c r="I60" s="92">
         <v>132.69999999999999</v>
       </c>
-      <c r="I60" s="92">
+      <c r="J60" s="92">
         <v>4.18</v>
       </c>
-      <c r="J60" s="92">
+      <c r="K60" s="92">
         <v>4.4400000000000013</v>
       </c>
-      <c r="K60" s="92">
+      <c r="L60" s="92">
         <v>9.31</v>
       </c>
-      <c r="L60" s="92">
+      <c r="M60" s="92">
         <v>20.350000000000001</v>
       </c>
-      <c r="M60" s="92">
+      <c r="N60" s="92">
         <v>38.280000000000008</v>
       </c>
-      <c r="N60" s="90"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="90" t="s">
+      <c r="O60" s="90"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="C61" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="92">
+      <c r="D61" s="92">
         <v>20210802</v>
       </c>
-      <c r="D61" s="92">
+      <c r="E61" s="92">
         <v>196.88</v>
       </c>
-      <c r="E61" s="92">
+      <c r="F61" s="92">
         <v>19.87</v>
       </c>
-      <c r="F61" s="92">
+      <c r="G61" s="92">
         <v>28.13</v>
       </c>
-      <c r="G61" s="92">
+      <c r="H61" s="92">
         <v>49.64</v>
       </c>
-      <c r="H61" s="92">
+      <c r="I61" s="92">
         <v>99.24</v>
       </c>
-      <c r="I61" s="92">
+      <c r="J61" s="92">
         <v>5.24</v>
       </c>
-      <c r="J61" s="92">
+      <c r="K61" s="92">
         <v>6.6199999999999992</v>
       </c>
-      <c r="K61" s="92">
+      <c r="L61" s="92">
         <v>12.380000000000003</v>
       </c>
-      <c r="L61" s="92">
+      <c r="M61" s="92">
         <v>19.639999999999997</v>
       </c>
-      <c r="M61" s="92">
+      <c r="N61" s="92">
         <v>43.879999999999995</v>
       </c>
-      <c r="N61" s="90"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="90" t="s">
+      <c r="O61" s="90"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B62" s="92" t="s">
+      <c r="C62" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="92">
+      <c r="D62" s="92">
         <v>20210803</v>
       </c>
-      <c r="D62" s="92">
+      <c r="E62" s="92">
         <v>324.85000000000002</v>
       </c>
-      <c r="E62" s="92">
+      <c r="F62" s="92">
         <v>32.72</v>
       </c>
-      <c r="F62" s="92">
+      <c r="G62" s="92">
         <v>46.58</v>
       </c>
-      <c r="G62" s="92">
+      <c r="H62" s="92">
         <v>81.849999999999994</v>
       </c>
-      <c r="H62" s="92">
+      <c r="I62" s="92">
         <v>163.69999999999999</v>
       </c>
-      <c r="I62" s="92">
+      <c r="J62" s="92">
         <v>9.76</v>
       </c>
-      <c r="J62" s="92">
+      <c r="K62" s="92">
         <v>13.47</v>
       </c>
-      <c r="K62" s="92">
+      <c r="L62" s="92">
         <v>18.940000000000001</v>
       </c>
-      <c r="L62" s="92">
+      <c r="M62" s="92">
         <v>42.510000000000005</v>
       </c>
-      <c r="M62" s="92">
+      <c r="N62" s="92">
         <v>84.68</v>
       </c>
-      <c r="N62" s="90"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="90" t="s">
+      <c r="O62" s="90"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="92" t="s">
+      <c r="C63" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="92">
+      <c r="D63" s="92">
         <v>20210804</v>
       </c>
-      <c r="D63" s="92">
+      <c r="E63" s="92">
         <v>319.07000000000005</v>
       </c>
-      <c r="E63" s="92">
+      <c r="F63" s="92">
         <v>32.24</v>
       </c>
-      <c r="F63" s="92">
+      <c r="G63" s="92">
         <v>45.28</v>
       </c>
-      <c r="G63" s="92">
+      <c r="H63" s="92">
         <v>80.510000000000005</v>
       </c>
-      <c r="H63" s="92">
+      <c r="I63" s="92">
         <v>161.04</v>
       </c>
-      <c r="I63" s="92">
+      <c r="J63" s="92">
         <v>5.7800000000000011</v>
       </c>
-      <c r="J63" s="92">
+      <c r="K63" s="92">
         <v>6.2700000000000014</v>
       </c>
-      <c r="K63" s="92">
+      <c r="L63" s="92">
         <v>14.509999999999998</v>
       </c>
-      <c r="L63" s="92">
+      <c r="M63" s="92">
         <v>30.279999999999998</v>
       </c>
-      <c r="M63" s="92">
+      <c r="N63" s="92">
         <v>56.839999999999996</v>
       </c>
-      <c r="N63" s="90"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="90" t="s">
+      <c r="O63" s="90"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="C64" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="92">
+      <c r="D64" s="92">
         <v>20210803</v>
       </c>
-      <c r="D64" s="92">
+      <c r="E64" s="92">
         <v>125.75000000000001</v>
       </c>
-      <c r="E64" s="92">
+      <c r="F64" s="92">
         <v>12.15</v>
       </c>
-      <c r="F64" s="92">
+      <c r="G64" s="92">
         <v>17.98</v>
       </c>
-      <c r="G64" s="92">
+      <c r="H64" s="92">
         <v>31.89</v>
       </c>
-      <c r="H64" s="92">
+      <c r="I64" s="92">
         <v>63.73</v>
       </c>
-      <c r="I64" s="92">
+      <c r="J64" s="92">
         <v>4.59</v>
       </c>
-      <c r="J64" s="92">
+      <c r="K64" s="92">
         <v>1.7699999999999996</v>
       </c>
-      <c r="K64" s="92">
+      <c r="L64" s="92">
         <v>7.4799999999999986</v>
       </c>
-      <c r="L64" s="92">
+      <c r="M64" s="92">
         <v>14.420000000000002</v>
       </c>
-      <c r="M64" s="92">
+      <c r="N64" s="92">
         <v>28.259999999999998</v>
       </c>
-      <c r="N64" s="90"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="90" t="s">
+      <c r="O64" s="90"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="C65" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="92">
+      <c r="D65" s="92">
         <v>20210803</v>
       </c>
-      <c r="D65" s="92">
+      <c r="E65" s="92">
         <v>122.85000000000001</v>
       </c>
-      <c r="E65" s="92">
+      <c r="F65" s="92">
         <v>12.31</v>
       </c>
-      <c r="F65" s="92">
+      <c r="G65" s="92">
         <v>18.36</v>
       </c>
-      <c r="G65" s="92">
+      <c r="H65" s="92">
         <v>30.73</v>
       </c>
-      <c r="H65" s="92">
+      <c r="I65" s="92">
         <v>61.45</v>
       </c>
-      <c r="I65" s="92">
+      <c r="J65" s="92">
         <v>3.0400000000000009</v>
       </c>
-      <c r="J65" s="92">
+      <c r="K65" s="92">
         <v>6.18</v>
       </c>
-      <c r="K65" s="92">
+      <c r="L65" s="92">
         <v>7.9200000000000017</v>
       </c>
-      <c r="L65" s="92">
+      <c r="M65" s="92">
         <v>14.560000000000002</v>
       </c>
-      <c r="M65" s="92">
+      <c r="N65" s="92">
         <v>31.700000000000003</v>
       </c>
-      <c r="N65" s="90"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="90" t="s">
+      <c r="O65" s="90"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B66" s="92" t="s">
+      <c r="C66" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="92">
+      <c r="D66" s="92">
         <v>20210804</v>
       </c>
-      <c r="D66" s="92">
+      <c r="E66" s="92">
         <v>153.68000000000004</v>
       </c>
-      <c r="E66" s="92">
+      <c r="F66" s="92">
         <v>15.77</v>
       </c>
-      <c r="F66" s="92">
+      <c r="G66" s="92">
         <v>19.579999999999998</v>
       </c>
-      <c r="G66" s="92">
+      <c r="H66" s="92">
         <v>39.46</v>
       </c>
-      <c r="H66" s="92">
+      <c r="I66" s="92">
         <v>78.87</v>
       </c>
-      <c r="I66" s="92">
+      <c r="J66" s="92">
         <v>1.9299999999999997</v>
       </c>
-      <c r="J66" s="92">
+      <c r="K66" s="92">
         <v>1.25</v>
       </c>
-      <c r="K66" s="92">
+      <c r="L66" s="92">
         <v>4.4499999999999993</v>
       </c>
-      <c r="L66" s="92">
+      <c r="M66" s="92">
         <v>9.490000000000002</v>
       </c>
-      <c r="M66" s="92">
+      <c r="N66" s="92">
         <v>17.12</v>
       </c>
-      <c r="N66" s="90"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="90" t="s">
+      <c r="O66" s="90"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="C67" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="92">
+      <c r="D67" s="92">
         <v>20210803</v>
       </c>
-      <c r="D67" s="92">
+      <c r="E67" s="92">
         <v>80.38</v>
       </c>
-      <c r="E67" s="92">
+      <c r="F67" s="92">
         <v>8.09</v>
       </c>
-      <c r="F67" s="92">
+      <c r="G67" s="92">
         <v>11.71</v>
       </c>
-      <c r="G67" s="92">
+      <c r="H67" s="92">
         <v>20.18</v>
       </c>
-      <c r="H67" s="92">
+      <c r="I67" s="92">
         <v>40.4</v>
       </c>
-      <c r="I67" s="92">
+      <c r="J67" s="92">
         <v>1.08</v>
       </c>
-      <c r="J67" s="92">
+      <c r="K67" s="92">
         <v>0.77999999999999936</v>
       </c>
-      <c r="K67" s="92">
+      <c r="L67" s="92">
         <v>2.4299999999999997</v>
       </c>
-      <c r="L67" s="92">
+      <c r="M67" s="92">
         <v>7.7200000000000006</v>
       </c>
-      <c r="M67" s="92">
+      <c r="N67" s="92">
         <v>12.01</v>
       </c>
-      <c r="N67" s="90"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="90" t="s">
+      <c r="O67" s="90"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="92" t="s">
+      <c r="C68" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="92">
+      <c r="D68" s="92">
         <v>20210802</v>
       </c>
-      <c r="D68" s="92">
+      <c r="E68" s="92">
         <v>32.26</v>
       </c>
-      <c r="E68" s="92">
+      <c r="F68" s="92">
         <v>3.25</v>
       </c>
-      <c r="F68" s="92">
+      <c r="G68" s="92">
         <v>4.49</v>
       </c>
-      <c r="G68" s="92">
+      <c r="H68" s="92">
         <v>8.19</v>
       </c>
-      <c r="H68" s="92">
+      <c r="I68" s="92">
         <v>16.329999999999998</v>
       </c>
-      <c r="I68" s="92">
+      <c r="J68" s="92">
         <v>0.82000000000000028</v>
       </c>
-      <c r="J68" s="92">
+      <c r="K68" s="92">
         <v>0.61000000000000121</v>
       </c>
-      <c r="K68" s="92">
+      <c r="L68" s="92">
         <v>2.5400000000000009</v>
       </c>
-      <c r="L68" s="92">
+      <c r="M68" s="92">
         <v>4.0199999999999996</v>
       </c>
-      <c r="M68" s="92">
+      <c r="N68" s="92">
         <v>7.990000000000002</v>
       </c>
-      <c r="N68" s="90"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="90" t="s">
+      <c r="O68" s="90"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="92" t="s">
+      <c r="C69" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="92">
+      <c r="D69" s="92">
         <v>20210803</v>
       </c>
-      <c r="D69" s="92">
+      <c r="E69" s="92">
         <v>107.73</v>
       </c>
-      <c r="E69" s="92">
+      <c r="F69" s="92">
         <v>10.73</v>
       </c>
-      <c r="F69" s="92">
+      <c r="G69" s="92">
         <v>15.78</v>
       </c>
-      <c r="G69" s="92">
+      <c r="H69" s="92">
         <v>27.06</v>
       </c>
-      <c r="H69" s="92">
+      <c r="I69" s="92">
         <v>54.16</v>
       </c>
-      <c r="I69" s="92">
+      <c r="J69" s="92">
         <v>1.3900000000000006</v>
       </c>
-      <c r="J69" s="92">
+      <c r="K69" s="92">
         <v>1.0499999999999989</v>
       </c>
-      <c r="K69" s="92">
+      <c r="L69" s="92">
         <v>4.76</v>
       </c>
-      <c r="L69" s="92">
+      <c r="M69" s="92">
         <v>10.709999999999999</v>
       </c>
-      <c r="M69" s="92">
+      <c r="N69" s="92">
         <v>17.909999999999997</v>
       </c>
-      <c r="N69" s="90"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="90" t="s">
+      <c r="O69" s="90"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B70" s="92" t="s">
+      <c r="C70" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="92">
+      <c r="D70" s="92">
         <v>20210803</v>
       </c>
-      <c r="D70" s="92">
+      <c r="E70" s="92">
         <v>135.61000000000001</v>
       </c>
-      <c r="E70" s="92">
+      <c r="F70" s="92">
         <v>13.8</v>
       </c>
-      <c r="F70" s="92">
+      <c r="G70" s="92">
         <v>17.16</v>
       </c>
-      <c r="G70" s="92">
+      <c r="H70" s="92">
         <v>34.79</v>
       </c>
-      <c r="H70" s="92">
+      <c r="I70" s="92">
         <v>69.86</v>
       </c>
-      <c r="I70" s="92">
+      <c r="J70" s="92">
         <v>3.1899999999999995</v>
       </c>
-      <c r="J70" s="92">
+      <c r="K70" s="92">
         <v>1.6899999999999995</v>
       </c>
-      <c r="K70" s="92">
+      <c r="L70" s="92">
         <v>8.7799999999999994</v>
       </c>
-      <c r="L70" s="92">
+      <c r="M70" s="92">
         <v>12.75</v>
       </c>
-      <c r="M70" s="92">
+      <c r="N70" s="92">
         <v>26.409999999999997</v>
       </c>
-      <c r="N70" s="90"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="90" t="s">
+      <c r="O70" s="90"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="92" t="s">
+      <c r="C71" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="92">
+      <c r="D71" s="92">
         <v>20210802</v>
       </c>
-      <c r="D71" s="92">
+      <c r="E71" s="92">
         <v>143.36000000000001</v>
       </c>
-      <c r="E71" s="92">
+      <c r="F71" s="92">
         <v>14.5</v>
       </c>
-      <c r="F71" s="92">
+      <c r="G71" s="92">
         <v>20.09</v>
       </c>
-      <c r="G71" s="92">
+      <c r="H71" s="92">
         <v>36.07</v>
       </c>
-      <c r="H71" s="92">
+      <c r="I71" s="92">
         <v>72.7</v>
       </c>
-      <c r="I71" s="92">
+      <c r="J71" s="92">
         <v>4.8900000000000006</v>
       </c>
-      <c r="J71" s="92">
+      <c r="K71" s="92">
         <v>3.51</v>
       </c>
-      <c r="K71" s="92">
+      <c r="L71" s="92">
         <v>8.4499999999999993</v>
       </c>
-      <c r="L71" s="92">
+      <c r="M71" s="92">
         <v>16.18</v>
       </c>
-      <c r="M71" s="92">
+      <c r="N71" s="92">
         <v>33.03</v>
       </c>
-      <c r="N71" s="90"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="90" t="s">
+      <c r="O71" s="90"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B72" s="92" t="s">
+      <c r="C72" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="C72" s="92">
+      <c r="D72" s="92">
         <v>20210804</v>
       </c>
-      <c r="D72" s="92">
+      <c r="E72" s="92">
         <v>336.59999999999997</v>
       </c>
-      <c r="E72" s="92">
+      <c r="F72" s="92">
         <v>33.94</v>
       </c>
-      <c r="F72" s="92">
+      <c r="G72" s="92">
         <v>48.06</v>
       </c>
-      <c r="G72" s="92">
+      <c r="H72" s="92">
         <v>84.9</v>
       </c>
-      <c r="H72" s="92">
+      <c r="I72" s="92">
         <v>169.7</v>
       </c>
-      <c r="I72" s="92">
+      <c r="J72" s="92">
         <v>5.1400000000000006</v>
       </c>
-      <c r="J72" s="92">
+      <c r="K72" s="92">
         <v>6.34</v>
       </c>
-      <c r="K72" s="92">
+      <c r="L72" s="92">
         <v>15.489999999999998</v>
       </c>
-      <c r="L72" s="92">
+      <c r="M72" s="92">
         <v>28.580000000000002</v>
       </c>
-      <c r="M72" s="92">
+      <c r="N72" s="92">
         <v>55.55</v>
       </c>
-      <c r="N72" s="90"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="90" t="s">
+      <c r="O72" s="90"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="92" t="s">
+      <c r="C73" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="92">
+      <c r="D73" s="92">
         <v>20210804</v>
       </c>
-      <c r="D73" s="92">
+      <c r="E73" s="92">
         <v>499.1</v>
       </c>
-      <c r="E73" s="92">
+      <c r="F73" s="92">
         <v>50.35</v>
       </c>
-      <c r="F73" s="92">
+      <c r="G73" s="92">
         <v>69.75</v>
       </c>
-      <c r="G73" s="92">
+      <c r="H73" s="92">
         <v>126.23</v>
       </c>
-      <c r="H73" s="92">
+      <c r="I73" s="92">
         <v>252.77</v>
       </c>
-      <c r="I73" s="92">
+      <c r="J73" s="92">
         <v>7.879999999999999</v>
       </c>
-      <c r="J73" s="92">
+      <c r="K73" s="92">
         <v>8.240000000000002</v>
       </c>
-      <c r="K73" s="92">
+      <c r="L73" s="92">
         <v>14.600000000000001</v>
       </c>
-      <c r="L73" s="92">
+      <c r="M73" s="92">
         <v>28.97</v>
       </c>
-      <c r="M73" s="92">
+      <c r="N73" s="92">
         <v>59.69</v>
       </c>
-      <c r="N73" s="90"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="90" t="s">
+      <c r="O73" s="90"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B74" s="92" t="s">
+      <c r="C74" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="92">
+      <c r="D74" s="92">
         <v>20210804</v>
       </c>
-      <c r="D74" s="92">
+      <c r="E74" s="92">
         <v>37.640000000000008</v>
       </c>
-      <c r="E74" s="92">
+      <c r="F74" s="92">
         <v>3.77</v>
       </c>
-      <c r="F74" s="92">
+      <c r="G74" s="92">
         <v>5.5</v>
       </c>
-      <c r="G74" s="92">
+      <c r="H74" s="92">
         <v>9.4600000000000009</v>
       </c>
-      <c r="H74" s="92">
+      <c r="I74" s="92">
         <v>18.91</v>
       </c>
-      <c r="I74" s="92">
+      <c r="J74" s="92">
         <v>1.17</v>
       </c>
-      <c r="J74" s="92">
+      <c r="K74" s="92">
         <v>1.2000000000000011</v>
       </c>
-      <c r="K74" s="92">
+      <c r="L74" s="92">
         <v>2.8900000000000006</v>
       </c>
-      <c r="L74" s="92">
+      <c r="M74" s="92">
         <v>5.9799999999999986</v>
       </c>
-      <c r="M74" s="92">
+      <c r="N74" s="92">
         <v>11.24</v>
       </c>
-      <c r="N74" s="90"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="90" t="s">
+      <c r="O74" s="90"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="C75" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="92">
+      <c r="D75" s="92">
         <v>20210803</v>
       </c>
-      <c r="D75" s="92">
+      <c r="E75" s="92">
         <v>31.659999999999997</v>
       </c>
-      <c r="E75" s="92">
+      <c r="F75" s="92">
         <v>3.15</v>
       </c>
-      <c r="F75" s="92">
+      <c r="G75" s="92">
         <v>4.74</v>
       </c>
-      <c r="G75" s="92">
+      <c r="H75" s="92">
         <v>7.92</v>
       </c>
-      <c r="H75" s="92">
+      <c r="I75" s="92">
         <v>15.85</v>
       </c>
-      <c r="I75" s="92">
+      <c r="J75" s="92">
         <v>0.82000000000000028</v>
       </c>
-      <c r="J75" s="92">
+      <c r="K75" s="92">
         <v>0.66999999999999993</v>
       </c>
-      <c r="K75" s="92">
+      <c r="L75" s="92">
         <v>1.9300000000000015</v>
       </c>
-      <c r="L75" s="92">
+      <c r="M75" s="92">
         <v>4.24</v>
       </c>
-      <c r="M75" s="92">
+      <c r="N75" s="92">
         <v>7.6600000000000019</v>
       </c>
-      <c r="N75" s="90"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="90" t="s">
+      <c r="O75" s="90"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="92" t="s">
+      <c r="C76" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="92">
+      <c r="D76" s="92">
         <v>20210803</v>
       </c>
-      <c r="D76" s="92">
+      <c r="E76" s="92">
         <v>47.62</v>
       </c>
-      <c r="E76" s="92">
+      <c r="F76" s="92">
         <v>4.8</v>
       </c>
-      <c r="F76" s="92">
+      <c r="G76" s="92">
         <v>6.79</v>
       </c>
-      <c r="G76" s="92">
+      <c r="H76" s="92">
         <v>12.02</v>
       </c>
-      <c r="H76" s="92">
+      <c r="I76" s="92">
         <v>24.01</v>
       </c>
-      <c r="I76" s="92">
+      <c r="J76" s="92">
         <v>1.4300000000000015</v>
       </c>
-      <c r="J76" s="92">
+      <c r="K76" s="92">
         <v>1.3099999999999987</v>
       </c>
-      <c r="K76" s="92">
+      <c r="L76" s="92">
         <v>5.16</v>
       </c>
-      <c r="L76" s="92">
+      <c r="M76" s="92">
         <v>9.2099999999999991</v>
       </c>
-      <c r="M76" s="92">
+      <c r="N76" s="92">
         <v>17.11</v>
       </c>
-      <c r="N76" s="90"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="90" t="s">
+      <c r="O76" s="90"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B77" s="92" t="s">
+      <c r="C77" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="92">
+      <c r="D77" s="92">
         <v>20210804</v>
       </c>
-      <c r="D77" s="92">
+      <c r="E77" s="92">
         <v>131.63</v>
       </c>
-      <c r="E77" s="92">
+      <c r="F77" s="92">
         <v>13.29</v>
       </c>
-      <c r="F77" s="92">
+      <c r="G77" s="92">
         <v>18.899999999999999</v>
       </c>
-      <c r="G77" s="92">
+      <c r="H77" s="92">
         <v>33.130000000000003</v>
       </c>
-      <c r="H77" s="92">
+      <c r="I77" s="92">
         <v>66.31</v>
       </c>
-      <c r="I77" s="92">
+      <c r="J77" s="92">
         <v>2.75</v>
       </c>
-      <c r="J77" s="92">
+      <c r="K77" s="92">
         <v>2.8499999999999996</v>
       </c>
-      <c r="K77" s="92">
+      <c r="L77" s="92">
         <v>5.4500000000000011</v>
       </c>
-      <c r="L77" s="92">
+      <c r="M77" s="92">
         <v>13.579999999999998</v>
       </c>
-      <c r="M77" s="92">
+      <c r="N77" s="92">
         <v>24.630000000000003</v>
       </c>
-      <c r="N77" s="90"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="90" t="s">
+      <c r="O77" s="90"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B78" s="92" t="s">
+      <c r="C78" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="92">
+      <c r="D78" s="92">
         <v>20210802</v>
       </c>
-      <c r="D78" s="92">
+      <c r="E78" s="92">
         <v>44.54</v>
       </c>
-      <c r="E78" s="92">
+      <c r="F78" s="92">
         <v>4.4400000000000004</v>
       </c>
-      <c r="F78" s="92">
+      <c r="G78" s="92">
         <v>6.75</v>
       </c>
-      <c r="G78" s="92">
+      <c r="H78" s="92">
         <v>11.13</v>
       </c>
-      <c r="H78" s="92">
+      <c r="I78" s="92">
         <v>22.22</v>
       </c>
-      <c r="I78" s="92">
+      <c r="J78" s="92">
         <v>1.6900000000000013</v>
       </c>
-      <c r="J78" s="92">
+      <c r="K78" s="92">
         <v>0.83000000000000007</v>
       </c>
-      <c r="K78" s="92">
+      <c r="L78" s="92">
         <v>3.7799999999999994</v>
       </c>
-      <c r="L78" s="92">
+      <c r="M78" s="92">
         <v>7.66</v>
       </c>
-      <c r="M78" s="92">
+      <c r="N78" s="92">
         <v>13.96</v>
       </c>
-      <c r="N78" s="90"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="90" t="s">
+      <c r="O78" s="90"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B79" s="92" t="s">
+      <c r="C79" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="92">
+      <c r="D79" s="92">
         <v>20210803</v>
       </c>
-      <c r="D79" s="92">
+      <c r="E79" s="92">
         <v>37.81</v>
       </c>
-      <c r="E79" s="92">
+      <c r="F79" s="92">
         <v>3.84</v>
       </c>
-      <c r="F79" s="92">
+      <c r="G79" s="92">
         <v>5.35</v>
       </c>
-      <c r="G79" s="92">
+      <c r="H79" s="92">
         <v>9.57</v>
       </c>
-      <c r="H79" s="92">
+      <c r="I79" s="92">
         <v>19.05</v>
       </c>
-      <c r="I79" s="92">
+      <c r="J79" s="92">
         <v>1.5099999999999998</v>
       </c>
-      <c r="J79" s="92">
+      <c r="K79" s="92">
         <v>0.37000000000000099</v>
       </c>
-      <c r="K79" s="92">
+      <c r="L79" s="92">
         <v>2.92</v>
       </c>
-      <c r="L79" s="92">
+      <c r="M79" s="92">
         <v>4.2000000000000011</v>
       </c>
-      <c r="M79" s="92">
+      <c r="N79" s="92">
         <v>9.0000000000000018</v>
       </c>
-      <c r="N79" s="90"/>
       <c r="O79" s="90"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="90" t="s">
+      <c r="P79" s="90"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B80" s="92" t="s">
+      <c r="C80" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="92">
+      <c r="D80" s="92">
         <v>20210727</v>
       </c>
-      <c r="D80" s="92">
+      <c r="E80" s="92">
         <v>711.84999999999991</v>
       </c>
-      <c r="E80" s="92">
+      <c r="F80" s="92">
         <v>71.28</v>
       </c>
-      <c r="F80" s="92">
+      <c r="G80" s="92">
         <v>106.05</v>
       </c>
-      <c r="G80" s="92">
+      <c r="H80" s="92">
         <v>178.17</v>
       </c>
-      <c r="H80" s="92">
+      <c r="I80" s="92">
         <v>356.35</v>
       </c>
-      <c r="I80" s="92">
+      <c r="J80" s="92">
         <v>6.76</v>
       </c>
-      <c r="J80" s="92">
+      <c r="K80" s="92">
         <v>10.31</v>
       </c>
-      <c r="K80" s="92">
+      <c r="L80" s="92">
         <v>15.510000000000002</v>
       </c>
-      <c r="L80" s="92">
+      <c r="M80" s="92">
         <v>28.909999999999997</v>
       </c>
-      <c r="M80" s="92">
+      <c r="N80" s="92">
         <v>61.49</v>
       </c>
-      <c r="N80" s="92"/>
-      <c r="O80" s="90"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" s="90" t="s">
+      <c r="O80" s="92"/>
+      <c r="P80" s="90"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B81" s="92" t="s">
+      <c r="C81" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="92">
+      <c r="D81" s="92">
         <v>20210727</v>
       </c>
-      <c r="D81" s="92">
+      <c r="E81" s="92">
         <v>129.64000000000001</v>
       </c>
-      <c r="E81" s="92">
+      <c r="F81" s="92">
         <v>13.15</v>
       </c>
-      <c r="F81" s="92">
+      <c r="G81" s="92">
         <v>18.78</v>
       </c>
-      <c r="G81" s="92">
+      <c r="H81" s="92">
         <v>32.54</v>
       </c>
-      <c r="H81" s="92">
+      <c r="I81" s="92">
         <v>65.17</v>
       </c>
-      <c r="I81" s="92">
+      <c r="J81" s="92">
         <v>2.6100000000000012</v>
       </c>
-      <c r="J81" s="92">
+      <c r="K81" s="92">
         <v>2.8899999999999988</v>
       </c>
-      <c r="K81" s="92">
+      <c r="L81" s="92">
         <v>6.32</v>
       </c>
-      <c r="L81" s="92">
+      <c r="M81" s="92">
         <v>13.75</v>
       </c>
-      <c r="M81" s="92">
+      <c r="N81" s="92">
         <v>25.57</v>
       </c>
-      <c r="N81" s="92"/>
-      <c r="O81" s="90"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" s="90" t="s">
+      <c r="O81" s="92"/>
+      <c r="P81" s="90"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="92" t="s">
+      <c r="C82" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="92">
+      <c r="D82" s="92">
         <v>20210929</v>
       </c>
-      <c r="D82" s="92">
+      <c r="E82" s="92">
         <v>150.16</v>
       </c>
-      <c r="E82" s="92">
+      <c r="F82" s="92">
         <v>15.44</v>
       </c>
-      <c r="F82" s="92">
+      <c r="G82" s="92">
         <v>19.23</v>
       </c>
-      <c r="G82" s="92">
+      <c r="H82" s="92">
         <v>38.549999999999997</v>
       </c>
-      <c r="H82" s="92">
+      <c r="I82" s="92">
         <v>76.94</v>
       </c>
-      <c r="I82" s="92">
+      <c r="J82" s="92">
         <v>1.5599999999999987</v>
       </c>
-      <c r="J82" s="92">
+      <c r="K82" s="92">
         <v>1.25</v>
       </c>
-      <c r="K82" s="92">
+      <c r="L82" s="92">
         <v>5.84</v>
       </c>
-      <c r="L82" s="92">
+      <c r="M82" s="92">
         <v>11.000000000000004</v>
       </c>
-      <c r="M82" s="92">
+      <c r="N82" s="92">
         <v>19.650000000000002</v>
       </c>
-      <c r="N82" s="92"/>
-      <c r="O82" s="90"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" s="90" t="s">
+      <c r="O82" s="92"/>
+      <c r="P82" s="90"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B83" s="92" t="s">
+      <c r="C83" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="92">
+      <c r="D83" s="92">
         <v>20210728</v>
       </c>
-      <c r="D83" s="92">
+      <c r="E83" s="92">
         <v>300.39000000000004</v>
       </c>
-      <c r="E83" s="92">
+      <c r="F83" s="92">
         <v>30.23</v>
       </c>
-      <c r="F83" s="92">
+      <c r="G83" s="92">
         <v>43.98</v>
       </c>
-      <c r="G83" s="92">
+      <c r="H83" s="92">
         <v>75.41</v>
       </c>
-      <c r="H83" s="92">
+      <c r="I83" s="92">
         <v>150.77000000000001</v>
       </c>
-      <c r="I83" s="92">
+      <c r="J83" s="92">
         <v>4.1400000000000006</v>
       </c>
-      <c r="J83" s="92">
+      <c r="K83" s="92">
         <v>6.77</v>
       </c>
-      <c r="K83" s="92">
+      <c r="L83" s="92">
         <v>12.510000000000002</v>
       </c>
-      <c r="L83" s="92">
+      <c r="M83" s="92">
         <v>18.93</v>
       </c>
-      <c r="M83" s="92">
+      <c r="N83" s="92">
         <v>42.35</v>
       </c>
-      <c r="N83" s="92"/>
-      <c r="O83" s="90"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" s="90" t="s">
+      <c r="O83" s="92"/>
+      <c r="P83" s="90"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="92" t="s">
+      <c r="C84" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="92">
+      <c r="D84" s="92">
         <v>20210727</v>
       </c>
-      <c r="D84" s="92">
+      <c r="E84" s="92">
         <v>214.87</v>
       </c>
-      <c r="E84" s="92">
+      <c r="F84" s="92">
         <v>21.68</v>
       </c>
-      <c r="F84" s="92">
+      <c r="G84" s="92">
         <v>31.13</v>
       </c>
-      <c r="G84" s="92">
+      <c r="H84" s="92">
         <v>54.02</v>
       </c>
-      <c r="H84" s="92">
+      <c r="I84" s="92">
         <v>108.04</v>
       </c>
-      <c r="I84" s="92">
+      <c r="J84" s="92">
         <v>2.66</v>
       </c>
-      <c r="J84" s="92">
+      <c r="K84" s="92">
         <v>3.09</v>
       </c>
-      <c r="K84" s="92">
+      <c r="L84" s="92">
         <v>6.91</v>
       </c>
-      <c r="L84" s="92">
+      <c r="M84" s="92">
         <v>10.449999999999996</v>
       </c>
-      <c r="M84" s="92">
+      <c r="N84" s="92">
         <v>23.109999999999996</v>
       </c>
-      <c r="N84" s="92"/>
-      <c r="O84" s="90"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" s="90" t="s">
+      <c r="O84" s="92"/>
+      <c r="P84" s="90"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="C85" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="92">
+      <c r="D85" s="92">
         <v>20210728</v>
       </c>
-      <c r="D85" s="92">
+      <c r="E85" s="92">
         <v>841.93000000000006</v>
       </c>
-      <c r="E85" s="92">
+      <c r="F85" s="92">
         <v>84.22</v>
       </c>
-      <c r="F85" s="92">
+      <c r="G85" s="92">
         <v>125.5</v>
       </c>
-      <c r="G85" s="92">
+      <c r="H85" s="92">
         <v>210.8</v>
       </c>
-      <c r="H85" s="92">
+      <c r="I85" s="92">
         <v>421.41</v>
       </c>
-      <c r="I85" s="92">
+      <c r="J85" s="92">
         <v>9.66</v>
       </c>
-      <c r="J85" s="92">
+      <c r="K85" s="92">
         <v>10.859999999999998</v>
       </c>
-      <c r="K85" s="92">
+      <c r="L85" s="92">
         <v>22.42</v>
       </c>
-      <c r="L85" s="92">
+      <c r="M85" s="92">
         <v>38.74</v>
       </c>
-      <c r="M85" s="92">
+      <c r="N85" s="92">
         <v>81.679999999999993</v>
       </c>
-      <c r="N85" s="92"/>
-      <c r="O85" s="90"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" s="90" t="s">
+      <c r="O85" s="92"/>
+      <c r="P85" s="90"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="92" t="s">
+      <c r="C86" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="C86" s="92">
+      <c r="D86" s="92">
         <v>20210729</v>
       </c>
-      <c r="D86" s="92">
+      <c r="E86" s="92">
         <v>472.72</v>
       </c>
-      <c r="E86" s="92">
+      <c r="F86" s="92">
         <v>48.11</v>
       </c>
-      <c r="F86" s="92">
+      <c r="G86" s="92">
         <v>63.83</v>
       </c>
-      <c r="G86" s="92">
+      <c r="H86" s="92">
         <v>120.26</v>
       </c>
-      <c r="H86" s="92">
+      <c r="I86" s="92">
         <v>240.52</v>
       </c>
-      <c r="I86" s="92">
+      <c r="J86" s="92">
         <v>5.3500000000000014</v>
       </c>
-      <c r="J86" s="92">
+      <c r="K86" s="92">
         <v>7.51</v>
       </c>
-      <c r="K86" s="92">
+      <c r="L86" s="92">
         <v>12.399999999999999</v>
       </c>
-      <c r="L86" s="92">
+      <c r="M86" s="92">
         <v>25.440000000000005</v>
       </c>
-      <c r="M86" s="92">
+      <c r="N86" s="92">
         <v>50.7</v>
       </c>
-      <c r="N86" s="92"/>
-      <c r="O86" s="90"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" s="90" t="s">
+      <c r="O86" s="92"/>
+      <c r="P86" s="90"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B87" s="92" t="s">
+      <c r="C87" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="C87" s="92">
+      <c r="D87" s="92">
         <v>20210729</v>
       </c>
-      <c r="D87" s="92">
+      <c r="E87" s="92">
         <v>374.64</v>
       </c>
-      <c r="E87" s="92">
+      <c r="F87" s="92">
         <v>37.020000000000003</v>
       </c>
-      <c r="F87" s="92">
+      <c r="G87" s="92">
         <v>59.93</v>
       </c>
-      <c r="G87" s="92">
+      <c r="H87" s="92">
         <v>92.36</v>
       </c>
-      <c r="H87" s="92">
+      <c r="I87" s="92">
         <v>185.33</v>
       </c>
-      <c r="I87" s="92">
+      <c r="J87" s="92">
         <v>3.1100000000000012</v>
       </c>
-      <c r="J87" s="92">
+      <c r="K87" s="92">
         <v>5.4699999999999989</v>
       </c>
-      <c r="K87" s="92">
+      <c r="L87" s="92">
         <v>7.3000000000000007</v>
       </c>
-      <c r="L87" s="92">
+      <c r="M87" s="92">
         <v>16.810000000000002</v>
       </c>
-      <c r="M87" s="92">
+      <c r="N87" s="92">
         <v>32.690000000000005</v>
       </c>
-      <c r="N87" s="92" t="s">
+      <c r="O87" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="O87" s="90"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" s="90" t="s">
+      <c r="P87" s="90"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="92" t="s">
+      <c r="C88" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="92">
+      <c r="D88" s="92">
         <v>20210727</v>
       </c>
-      <c r="D88" s="92">
+      <c r="E88" s="92">
         <v>229.48000000000002</v>
       </c>
-      <c r="E88" s="92">
+      <c r="F88" s="92">
         <v>21.21</v>
       </c>
-      <c r="F88" s="92">
+      <c r="G88" s="92">
         <v>33.96</v>
       </c>
-      <c r="G88" s="92">
+      <c r="H88" s="92">
         <v>58.12</v>
       </c>
-      <c r="H88" s="92">
+      <c r="I88" s="92">
         <v>116.19</v>
       </c>
-      <c r="I88" s="92">
+      <c r="J88" s="92">
         <v>3.6400000000000006</v>
       </c>
-      <c r="J88" s="92">
+      <c r="K88" s="92">
         <v>4.3699999999999992</v>
       </c>
-      <c r="K88" s="92">
+      <c r="L88" s="92">
         <v>8.2200000000000006</v>
       </c>
-      <c r="L88" s="92">
+      <c r="M88" s="92">
         <v>17.189999999999998</v>
       </c>
-      <c r="M88" s="92">
+      <c r="N88" s="92">
         <v>33.419999999999995</v>
       </c>
-      <c r="N88" s="92"/>
-      <c r="O88" s="90"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" s="90" t="s">
+      <c r="O88" s="92"/>
+      <c r="P88" s="90"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="C89" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="92">
+      <c r="D89" s="92">
         <v>20210727</v>
       </c>
-      <c r="D89" s="92">
+      <c r="E89" s="92">
         <v>440</v>
       </c>
-      <c r="E89" s="92">
+      <c r="F89" s="92">
         <v>47.12</v>
       </c>
-      <c r="F89" s="92">
+      <c r="G89" s="92">
         <v>39.68</v>
       </c>
-      <c r="G89" s="92">
+      <c r="H89" s="92">
         <v>117.74</v>
       </c>
-      <c r="H89" s="92">
+      <c r="I89" s="92">
         <v>235.46</v>
       </c>
-      <c r="I89" s="92">
+      <c r="J89" s="92">
         <v>5.2800000000000011</v>
       </c>
-      <c r="J89" s="92">
+      <c r="K89" s="92">
         <v>4.32</v>
       </c>
-      <c r="K89" s="92">
+      <c r="L89" s="92">
         <v>13.579999999999998</v>
       </c>
-      <c r="L89" s="92">
+      <c r="M89" s="92">
         <v>25.290000000000006</v>
       </c>
-      <c r="M89" s="92">
+      <c r="N89" s="92">
         <v>48.470000000000006</v>
       </c>
-      <c r="N89" s="92" t="s">
+      <c r="O89" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="O89" s="90"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" s="90" t="s">
+      <c r="P89" s="90"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B90" s="92" t="s">
+      <c r="C90" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C90" s="92">
+      <c r="D90" s="92">
         <v>20210727</v>
       </c>
-      <c r="D90" s="92">
+      <c r="E90" s="92">
         <v>395.63</v>
       </c>
-      <c r="E90" s="92">
+      <c r="F90" s="92">
         <v>39.65</v>
       </c>
-      <c r="F90" s="92">
+      <c r="G90" s="92">
         <v>58.5</v>
       </c>
-      <c r="G90" s="92">
+      <c r="H90" s="92">
         <v>99.17</v>
       </c>
-      <c r="H90" s="92">
+      <c r="I90" s="92">
         <v>198.31</v>
       </c>
-      <c r="I90" s="92">
+      <c r="J90" s="92">
         <v>4.870000000000001</v>
       </c>
-      <c r="J90" s="92">
+      <c r="K90" s="92">
         <v>4.9399999999999995</v>
       </c>
-      <c r="K90" s="92">
+      <c r="L90" s="92">
         <v>12.31</v>
       </c>
-      <c r="L90" s="92">
+      <c r="M90" s="92">
         <v>23.560000000000002</v>
       </c>
-      <c r="M90" s="92">
+      <c r="N90" s="92">
         <v>45.680000000000007</v>
       </c>
-      <c r="N90" s="92"/>
-      <c r="O90" s="90"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" s="90" t="s">
+      <c r="O90" s="92"/>
+      <c r="P90" s="90"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B91" s="92" t="s">
+      <c r="C91" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="C91" s="92">
+      <c r="D91" s="92">
         <v>20210728</v>
       </c>
-      <c r="D91" s="92">
+      <c r="E91" s="92">
         <v>226.04999999999998</v>
       </c>
-      <c r="E91" s="92">
+      <c r="F91" s="92">
         <v>22.79</v>
       </c>
-      <c r="F91" s="92">
+      <c r="G91" s="92">
         <v>32.979999999999997</v>
       </c>
-      <c r="G91" s="92">
+      <c r="H91" s="92">
         <v>56.78</v>
       </c>
-      <c r="H91" s="92">
+      <c r="I91" s="92">
         <v>113.5</v>
       </c>
-      <c r="I91" s="92">
+      <c r="J91" s="92">
         <v>2.5300000000000011</v>
       </c>
-      <c r="J91" s="92">
+      <c r="K91" s="92">
         <v>3.3600000000000012</v>
       </c>
-      <c r="K91" s="92">
+      <c r="L91" s="92">
         <v>5.57</v>
       </c>
-      <c r="L91" s="92">
+      <c r="M91" s="92">
         <v>11.09</v>
       </c>
-      <c r="M91" s="92">
+      <c r="N91" s="92">
         <v>22.550000000000004</v>
       </c>
-      <c r="N91" s="92"/>
-      <c r="O91" s="90"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" s="90" t="s">
+      <c r="O91" s="92"/>
+      <c r="P91" s="90"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="C92" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="92">
+      <c r="D92" s="92">
         <v>20210728</v>
       </c>
-      <c r="D92" s="92">
+      <c r="E92" s="92">
         <v>743.78000000000009</v>
       </c>
-      <c r="E92" s="92">
+      <c r="F92" s="92">
         <v>74.709999999999994</v>
       </c>
-      <c r="F92" s="92">
+      <c r="G92" s="92">
         <v>109.64</v>
       </c>
-      <c r="G92" s="92">
+      <c r="H92" s="92">
         <v>186.8</v>
       </c>
-      <c r="H92" s="92">
+      <c r="I92" s="92">
         <v>372.63</v>
       </c>
-      <c r="I92" s="92">
+      <c r="J92" s="92">
         <v>4.2099999999999973</v>
       </c>
-      <c r="J92" s="92">
+      <c r="K92" s="92">
         <v>7.9700000000000024</v>
       </c>
-      <c r="K92" s="92">
+      <c r="L92" s="92">
         <v>10.07</v>
       </c>
-      <c r="L92" s="92">
+      <c r="M92" s="92">
         <v>23.270000000000003</v>
       </c>
-      <c r="M92" s="92">
+      <c r="N92" s="92">
         <v>45.519999999999996</v>
       </c>
-      <c r="N92" s="92"/>
-      <c r="O92" s="90"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A93" s="90" t="s">
+      <c r="O92" s="92"/>
+      <c r="P92" s="90"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B93" s="92" t="s">
+      <c r="C93" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="C93" s="92">
+      <c r="D93" s="92">
         <v>20210727</v>
       </c>
-      <c r="D93" s="92">
+      <c r="E93" s="92">
         <v>183.03</v>
       </c>
-      <c r="E93" s="92">
+      <c r="F93" s="92">
         <v>18.350000000000001</v>
       </c>
-      <c r="F93" s="92">
+      <c r="G93" s="92">
         <v>27.01</v>
       </c>
-      <c r="G93" s="92">
+      <c r="H93" s="92">
         <v>45.74</v>
       </c>
-      <c r="H93" s="92">
+      <c r="I93" s="92">
         <v>91.93</v>
       </c>
-      <c r="I93" s="92">
+      <c r="J93" s="92">
         <v>3.9000000000000004</v>
       </c>
-      <c r="J93" s="92">
+      <c r="K93" s="92">
         <v>3.8299999999999983</v>
       </c>
-      <c r="K93" s="92">
+      <c r="L93" s="92">
         <v>7.3500000000000014</v>
       </c>
-      <c r="L93" s="92">
+      <c r="M93" s="92">
         <v>16.47</v>
       </c>
-      <c r="M93" s="92">
+      <c r="N93" s="92">
         <v>31.549999999999997</v>
       </c>
-      <c r="N93" s="92"/>
-      <c r="O93" s="90"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" s="90" t="s">
+      <c r="O93" s="92"/>
+      <c r="P93" s="90"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B94" s="92" t="s">
+      <c r="C94" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C94" s="92">
+      <c r="D94" s="92">
         <v>20210728</v>
       </c>
-      <c r="D94" s="92">
+      <c r="E94" s="92">
         <v>56.31</v>
       </c>
-      <c r="E94" s="92">
+      <c r="F94" s="92">
         <v>5.74</v>
       </c>
-      <c r="F94" s="92">
+      <c r="G94" s="92">
         <v>7.6</v>
       </c>
-      <c r="G94" s="92">
+      <c r="H94" s="92">
         <v>14.31</v>
       </c>
-      <c r="H94" s="92">
+      <c r="I94" s="92">
         <v>28.66</v>
       </c>
-      <c r="I94" s="92">
+      <c r="J94" s="92">
         <v>1.1199999999999992</v>
       </c>
-      <c r="J94" s="92">
+      <c r="K94" s="92">
         <v>1.6099999999999994</v>
       </c>
-      <c r="K94" s="92">
+      <c r="L94" s="92">
         <v>3.09</v>
       </c>
-      <c r="L94" s="92">
+      <c r="M94" s="92">
         <v>4.82</v>
       </c>
-      <c r="M94" s="92">
+      <c r="N94" s="92">
         <v>10.639999999999999</v>
       </c>
-      <c r="N94" s="92"/>
-      <c r="O94" s="90"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" s="90" t="s">
+      <c r="O94" s="92"/>
+      <c r="P94" s="90"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B95" s="92" t="s">
+      <c r="C95" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="92">
+      <c r="D95" s="92">
         <v>20210727</v>
       </c>
-      <c r="D95" s="92">
+      <c r="E95" s="92">
         <v>73.180000000000007</v>
       </c>
-      <c r="E95" s="92">
+      <c r="F95" s="92">
         <v>7.36</v>
       </c>
-      <c r="F95" s="92">
+      <c r="G95" s="92">
         <v>10.44</v>
       </c>
-      <c r="G95" s="92">
+      <c r="H95" s="92">
         <v>18.46</v>
       </c>
-      <c r="H95" s="92">
+      <c r="I95" s="92">
         <v>36.92</v>
       </c>
-      <c r="I95" s="92">
+      <c r="J95" s="92">
         <v>0.95000000000000107</v>
       </c>
-      <c r="J95" s="92">
+      <c r="K95" s="92">
         <v>1</v>
       </c>
-      <c r="K95" s="92">
+      <c r="L95" s="92">
         <v>2.91</v>
       </c>
-      <c r="L95" s="92">
+      <c r="M95" s="92">
         <v>4.68</v>
       </c>
-      <c r="M95" s="92">
+      <c r="N95" s="92">
         <v>9.5400000000000009</v>
       </c>
-      <c r="N95" s="92"/>
-      <c r="O95" s="90"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" s="90" t="s">
+      <c r="O95" s="92"/>
+      <c r="P95" s="90"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B96" s="92" t="s">
+      <c r="C96" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="92">
+      <c r="D96" s="92">
         <v>20210729</v>
       </c>
-      <c r="D96" s="92">
+      <c r="E96" s="92">
         <v>221.35</v>
       </c>
-      <c r="E96" s="92">
+      <c r="F96" s="92">
         <v>21.37</v>
       </c>
-      <c r="F96" s="92">
+      <c r="G96" s="92">
         <v>39.380000000000003</v>
       </c>
-      <c r="G96" s="92">
+      <c r="H96" s="92">
         <v>53.75</v>
       </c>
-      <c r="H96" s="92">
+      <c r="I96" s="92">
         <v>106.85</v>
       </c>
-      <c r="I96" s="92">
+      <c r="J96" s="92">
         <v>2.8499999999999996</v>
       </c>
-      <c r="J96" s="92">
+      <c r="K96" s="92">
         <v>2.6999999999999993</v>
       </c>
-      <c r="K96" s="92">
+      <c r="L96" s="92">
         <v>7.83</v>
       </c>
-      <c r="L96" s="92">
+      <c r="M96" s="92">
         <v>13.700000000000001</v>
       </c>
-      <c r="M96" s="92">
+      <c r="N96" s="92">
         <v>27.08</v>
       </c>
-      <c r="N96" s="92"/>
-      <c r="O96" s="90"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" s="90" t="s">
+      <c r="O96" s="92"/>
+      <c r="P96" s="90"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="C97" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="C97" s="92">
+      <c r="D97" s="92">
         <v>20210729</v>
       </c>
-      <c r="D97" s="92">
+      <c r="E97" s="92">
         <v>523.64</v>
       </c>
-      <c r="E97" s="92">
+      <c r="F97" s="92">
         <v>52.84</v>
       </c>
-      <c r="F97" s="92">
+      <c r="G97" s="92">
         <v>75.45</v>
       </c>
-      <c r="G97" s="92">
+      <c r="H97" s="92">
         <v>131.79</v>
       </c>
-      <c r="H97" s="92">
+      <c r="I97" s="92">
         <v>263.56</v>
       </c>
-      <c r="I97" s="92">
+      <c r="J97" s="92">
         <v>2.8699999999999992</v>
       </c>
-      <c r="J97" s="92">
+      <c r="K97" s="92">
         <v>4.2000000000000011</v>
       </c>
-      <c r="K97" s="92">
+      <c r="L97" s="92">
         <v>7.7000000000000011</v>
       </c>
-      <c r="L97" s="92">
+      <c r="M97" s="92">
         <v>14.949999999999996</v>
       </c>
-      <c r="M97" s="92">
+      <c r="N97" s="92">
         <v>29.72</v>
       </c>
-      <c r="N97" s="92"/>
-      <c r="O97" s="90"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" s="90" t="s">
+      <c r="O97" s="92"/>
+      <c r="P97" s="90"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B98" s="92" t="s">
+      <c r="C98" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="92">
+      <c r="D98" s="92">
         <v>20210721</v>
       </c>
-      <c r="D98" s="92">
+      <c r="E98" s="92">
         <v>400.05000000000007</v>
       </c>
-      <c r="E98" s="92">
+      <c r="F98" s="92">
         <v>41.16</v>
       </c>
-      <c r="F98" s="92">
+      <c r="G98" s="92">
         <v>50.04</v>
       </c>
-      <c r="G98" s="92">
+      <c r="H98" s="92">
         <v>102.94</v>
       </c>
-      <c r="H98" s="92">
+      <c r="I98" s="92">
         <v>205.91</v>
       </c>
-      <c r="I98" s="92">
+      <c r="J98" s="92">
         <v>5.27</v>
       </c>
-      <c r="J98" s="92">
+      <c r="K98" s="92">
         <v>6.5399999999999991</v>
       </c>
-      <c r="K98" s="92">
+      <c r="L98" s="92">
         <v>13.060000000000002</v>
       </c>
-      <c r="L98" s="92">
+      <c r="M98" s="92">
         <v>23.71</v>
       </c>
-      <c r="M98" s="92">
+      <c r="N98" s="92">
         <v>48.58</v>
       </c>
-      <c r="N98" s="92"/>
-      <c r="O98" s="90"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A99" s="90" t="s">
+      <c r="O98" s="92"/>
+      <c r="P98" s="90"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B99" s="92" t="s">
+      <c r="C99" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C99" s="92">
+      <c r="D99" s="92">
         <v>20210826</v>
       </c>
-      <c r="D99" s="92">
+      <c r="E99" s="92">
         <v>810.49</v>
       </c>
-      <c r="E99" s="92">
+      <c r="F99" s="92">
         <v>81.31</v>
       </c>
-      <c r="F99" s="92">
+      <c r="G99" s="92">
         <v>119.31</v>
       </c>
-      <c r="G99" s="92">
+      <c r="H99" s="92">
         <v>203.39</v>
       </c>
-      <c r="H99" s="92">
+      <c r="I99" s="92">
         <v>406.48</v>
       </c>
-      <c r="I99" s="92">
+      <c r="J99" s="92">
         <v>5.379999999999999</v>
       </c>
-      <c r="J99" s="92">
+      <c r="K99" s="92">
         <v>8.36</v>
       </c>
-      <c r="K99" s="92">
+      <c r="L99" s="92">
         <v>12.759999999999998</v>
       </c>
-      <c r="L99" s="92">
+      <c r="M99" s="92">
         <v>27.31</v>
       </c>
-      <c r="M99" s="92">
+      <c r="N99" s="92">
         <v>53.809999999999988</v>
       </c>
-      <c r="N99" s="92"/>
-      <c r="O99" s="90"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" s="90" t="s">
+      <c r="O99" s="92"/>
+      <c r="P99" s="90"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B100" s="92" t="s">
+      <c r="C100" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="C100" s="92">
+      <c r="D100" s="92">
         <v>20210727</v>
       </c>
-      <c r="D100" s="92">
+      <c r="E100" s="92">
         <v>682.70999999999992</v>
       </c>
-      <c r="E100" s="92">
+      <c r="F100" s="92">
         <v>68.53</v>
       </c>
-      <c r="F100" s="92">
+      <c r="G100" s="92">
         <v>100.16</v>
       </c>
-      <c r="G100" s="92">
+      <c r="H100" s="92">
         <v>171.34</v>
       </c>
-      <c r="H100" s="92">
+      <c r="I100" s="92">
         <v>342.68</v>
       </c>
-      <c r="I100" s="92">
+      <c r="J100" s="92">
         <v>7.4700000000000006</v>
       </c>
-      <c r="J100" s="92">
+      <c r="K100" s="92">
         <v>10.79</v>
       </c>
-      <c r="K100" s="92">
+      <c r="L100" s="92">
         <v>15.97</v>
       </c>
-      <c r="L100" s="92">
+      <c r="M100" s="92">
         <v>35.039999999999992</v>
       </c>
-      <c r="M100" s="92">
+      <c r="N100" s="92">
         <v>69.27</v>
       </c>
-      <c r="N100" s="92"/>
-      <c r="O100" s="90"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" s="90" t="s">
+      <c r="O100" s="92"/>
+      <c r="P100" s="90"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="C101" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C101" s="92">
+      <c r="D101" s="92">
         <v>20210726</v>
       </c>
-      <c r="D101" s="92">
+      <c r="E101" s="92">
         <v>338.15000000000003</v>
       </c>
-      <c r="E101" s="92">
+      <c r="F101" s="92">
         <v>34.56</v>
       </c>
-      <c r="F101" s="92">
+      <c r="G101" s="92">
         <v>44.1</v>
       </c>
-      <c r="G101" s="92">
+      <c r="H101" s="92">
         <v>86.56</v>
       </c>
-      <c r="H101" s="92">
+      <c r="I101" s="92">
         <v>172.93</v>
       </c>
-      <c r="I101" s="92">
+      <c r="J101" s="92">
         <v>1.1900000000000013</v>
       </c>
-      <c r="J101" s="92">
+      <c r="K101" s="92">
         <v>2.76</v>
       </c>
-      <c r="K101" s="92">
+      <c r="L101" s="92">
         <v>4.99</v>
       </c>
-      <c r="L101" s="92">
+      <c r="M101" s="92">
         <v>9.3799999999999955</v>
       </c>
-      <c r="M101" s="92">
+      <c r="N101" s="92">
         <v>18.319999999999997</v>
       </c>
-      <c r="N101" s="92" t="s">
+      <c r="O101" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="O101" s="90"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" s="90" t="s">
+      <c r="P101" s="90"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B102" s="92" t="s">
+      <c r="C102" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="C102" s="92">
+      <c r="D102" s="92">
         <v>20210726</v>
       </c>
-      <c r="D102" s="92">
+      <c r="E102" s="92">
         <v>412.73</v>
       </c>
-      <c r="E102" s="92">
+      <c r="F102" s="92">
         <v>41.41</v>
       </c>
-      <c r="F102" s="92">
+      <c r="G102" s="92">
         <v>61.18</v>
       </c>
-      <c r="G102" s="92">
+      <c r="H102" s="92">
         <v>103.36</v>
       </c>
-      <c r="H102" s="92">
+      <c r="I102" s="92">
         <v>206.78</v>
       </c>
-      <c r="I102" s="92">
+      <c r="J102" s="92">
         <v>3.7300000000000004</v>
       </c>
-      <c r="J102" s="92">
+      <c r="K102" s="92">
         <v>5.6899999999999995</v>
       </c>
-      <c r="K102" s="92">
+      <c r="L102" s="92">
         <v>8.59</v>
       </c>
-      <c r="L102" s="92">
+      <c r="M102" s="92">
         <v>35.14</v>
       </c>
-      <c r="M102" s="92">
+      <c r="N102" s="92">
         <v>53.150000000000006</v>
       </c>
-      <c r="N102" s="92"/>
-      <c r="O102" s="90"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="90"/>
+      <c r="O102" s="92"/>
+      <c r="P102" s="90"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B103" s="90"/>
       <c r="C103" s="90"/>
       <c r="D103" s="90"/>
@@ -6503,9 +6823,9 @@
       <c r="M103" s="90"/>
       <c r="N103" s="90"/>
       <c r="O103" s="90"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="90"/>
+      <c r="P103" s="90"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B104" s="90"/>
       <c r="C104" s="90"/>
       <c r="D104" s="90"/>
@@ -6520,8 +6840,10 @@
       <c r="M104" s="90"/>
       <c r="N104" s="90"/>
       <c r="O104" s="90"/>
+      <c r="P104" s="90"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
